--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2908250547652784</v>
+        <v>0.2908250547658326</v>
       </c>
       <c r="D2">
-        <v>1.135832975075772</v>
+        <v>1.135832975076028</v>
       </c>
       <c r="E2">
-        <v>0.1542099909061392</v>
+        <v>0.154209990906125</v>
       </c>
       <c r="F2">
-        <v>21.54246072454117</v>
+        <v>21.5424607245414</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>16.80612750652176</v>
+        <v>16.80612750652199</v>
       </c>
       <c r="I2">
-        <v>0.4753554996922631</v>
+        <v>0.4753554996922844</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.252052538744195</v>
+        <v>0.2520525387442838</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2217520525579317</v>
+        <v>0.2217520525583865</v>
       </c>
       <c r="D3">
         <v>0.8664930072866071</v>
       </c>
       <c r="E3">
-        <v>0.118807741236278</v>
+        <v>0.1188077412362674</v>
       </c>
       <c r="F3">
-        <v>16.58174155350179</v>
+        <v>16.5817415535023</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.9306591489302</v>
+        <v>12.9306591489306</v>
       </c>
       <c r="I3">
-        <v>0.3640240509126969</v>
+        <v>0.3640240509127253</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1933425616212965</v>
+        <v>0.1933425616213604</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1894913844521966</v>
+        <v>0.1894913844520545</v>
       </c>
       <c r="D4">
-        <v>0.7407614202039667</v>
+        <v>0.7407614202039383</v>
       </c>
       <c r="E4">
         <v>0.1022844806720045</v>
       </c>
       <c r="F4">
-        <v>14.24695545091959</v>
+        <v>14.24695545091981</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11.10738368362226</v>
+        <v>11.10738368362252</v>
       </c>
       <c r="I4">
-        <v>0.3120416347879882</v>
+        <v>0.3120416347879811</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1659239041856679</v>
+        <v>0.1659239041856573</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1776807062407357</v>
+        <v>0.1776807062401815</v>
       </c>
       <c r="D5">
-        <v>0.6947496320733535</v>
+        <v>0.6947496320735524</v>
       </c>
       <c r="E5">
-        <v>0.09624471529227563</v>
+        <v>0.09624471529235379</v>
       </c>
       <c r="F5">
-        <v>13.3901309833775</v>
+        <v>13.39013098337773</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.43837125450762</v>
+        <v>10.43837125450779</v>
       </c>
       <c r="I5">
-        <v>0.2930266739206147</v>
+        <v>0.2930266739206218</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1558949434898658</v>
+        <v>0.1558949434898054</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1757817696992277</v>
+        <v>0.1757817696991424</v>
       </c>
       <c r="D6">
-        <v>0.6873529334001773</v>
+        <v>0.6873529334006605</v>
       </c>
       <c r="E6">
-        <v>0.09527428803972882</v>
+        <v>0.09527428803967553</v>
       </c>
       <c r="F6">
-        <v>13.25228430166868</v>
+        <v>13.25228430166851</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.33074436835312</v>
+        <v>10.33074436835301</v>
       </c>
       <c r="I6">
-        <v>0.2899705378512891</v>
+        <v>0.2899705378513247</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1542831348808846</v>
+        <v>0.1542831348808491</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1893275917701942</v>
+        <v>0.1893275917697395</v>
       </c>
       <c r="D7">
-        <v>0.7401232414030403</v>
+        <v>0.7401232414027845</v>
       </c>
       <c r="E7">
-        <v>0.102200676349625</v>
+        <v>0.1022006763496783</v>
       </c>
       <c r="F7">
-        <v>14.23507949442416</v>
+        <v>14.23507949442444</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11.09811054949191</v>
+        <v>11.09811054949213</v>
       </c>
       <c r="I7">
-        <v>0.3117778574549348</v>
+        <v>0.3117778574549419</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1657847770404963</v>
+        <v>0.1657847770404395</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D8">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E8">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F8">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I8">
         <v>0.4315819344781957</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D9">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E9">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F9">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I9">
         <v>0.4315819344781957</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D10">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E10">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F10">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I10">
         <v>0.4315819344781957</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D11">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E11">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F11">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I11">
         <v>0.4315819344781957</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D12">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E12">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F12">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I12">
         <v>0.4315819344781957</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D13">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E13">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F13">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I13">
         <v>0.4315819344781957</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D14">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E14">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F14">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I14">
         <v>0.4315819344781957</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D15">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E15">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F15">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I15">
         <v>0.4315819344781957</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D16">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E16">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F16">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I16">
         <v>0.4315819344781957</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D17">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E17">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F17">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I17">
         <v>0.4315819344781957</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D18">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E18">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F18">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I18">
         <v>0.4315819344781957</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D19">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E19">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F19">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I19">
         <v>0.4315819344781957</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D20">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E20">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F20">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I20">
         <v>0.4315819344781957</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D21">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E21">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F21">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I21">
         <v>0.4315819344781957</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D22">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E22">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F22">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I22">
         <v>0.4315819344781957</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D23">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E23">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F23">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I23">
         <v>0.4315819344781957</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D24">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E24">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F24">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I24">
         <v>0.4315819344781957</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2636590169994406</v>
+        <v>0.263659016998858</v>
       </c>
       <c r="D25">
-        <v>1.029892063084048</v>
+        <v>1.029892063084134</v>
       </c>
       <c r="E25">
-        <v>0.1402924374494638</v>
+        <v>0.1402924374494852</v>
       </c>
       <c r="F25">
-        <v>19.59875527280349</v>
+        <v>19.59875527280326</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15.28736243023459</v>
+        <v>15.28736243023445</v>
       </c>
       <c r="I25">
         <v>0.4315819344781957</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2289730478864875</v>
+        <v>0.2289730478865977</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2908250547658326</v>
+        <v>0.2908250547652784</v>
       </c>
       <c r="D2">
-        <v>1.135832975076028</v>
+        <v>1.135832975075772</v>
       </c>
       <c r="E2">
-        <v>0.154209990906125</v>
+        <v>0.1542099909061392</v>
       </c>
       <c r="F2">
-        <v>21.5424607245414</v>
+        <v>21.54246072454117</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>16.80612750652199</v>
+        <v>16.80612750652176</v>
       </c>
       <c r="I2">
-        <v>0.4753554996922844</v>
+        <v>0.4753554996922631</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2520525387442838</v>
+        <v>0.252052538744195</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2217520525583865</v>
+        <v>0.2217520525579317</v>
       </c>
       <c r="D3">
         <v>0.8664930072866071</v>
       </c>
       <c r="E3">
-        <v>0.1188077412362674</v>
+        <v>0.118807741236278</v>
       </c>
       <c r="F3">
-        <v>16.5817415535023</v>
+        <v>16.58174155350179</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.9306591489306</v>
+        <v>12.9306591489302</v>
       </c>
       <c r="I3">
-        <v>0.3640240509127253</v>
+        <v>0.3640240509126969</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1933425616213604</v>
+        <v>0.1933425616212965</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1894913844520545</v>
+        <v>0.1894913844521966</v>
       </c>
       <c r="D4">
-        <v>0.7407614202039383</v>
+        <v>0.7407614202039667</v>
       </c>
       <c r="E4">
         <v>0.1022844806720045</v>
       </c>
       <c r="F4">
-        <v>14.24695545091981</v>
+        <v>14.24695545091959</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11.10738368362252</v>
+        <v>11.10738368362226</v>
       </c>
       <c r="I4">
-        <v>0.3120416347879811</v>
+        <v>0.3120416347879882</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1659239041856573</v>
+        <v>0.1659239041856679</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1776807062401815</v>
+        <v>0.1776807062407357</v>
       </c>
       <c r="D5">
-        <v>0.6947496320735524</v>
+        <v>0.6947496320733535</v>
       </c>
       <c r="E5">
-        <v>0.09624471529235379</v>
+        <v>0.09624471529227563</v>
       </c>
       <c r="F5">
-        <v>13.39013098337773</v>
+        <v>13.3901309833775</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.43837125450779</v>
+        <v>10.43837125450762</v>
       </c>
       <c r="I5">
-        <v>0.2930266739206218</v>
+        <v>0.2930266739206147</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1558949434898054</v>
+        <v>0.1558949434898658</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1757817696991424</v>
+        <v>0.1757817696992277</v>
       </c>
       <c r="D6">
-        <v>0.6873529334006605</v>
+        <v>0.6873529334001773</v>
       </c>
       <c r="E6">
-        <v>0.09527428803967553</v>
+        <v>0.09527428803972882</v>
       </c>
       <c r="F6">
-        <v>13.25228430166851</v>
+        <v>13.25228430166868</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.33074436835301</v>
+        <v>10.33074436835312</v>
       </c>
       <c r="I6">
-        <v>0.2899705378513247</v>
+        <v>0.2899705378512891</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1542831348808491</v>
+        <v>0.1542831348808846</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1893275917697395</v>
+        <v>0.1893275917701942</v>
       </c>
       <c r="D7">
-        <v>0.7401232414027845</v>
+        <v>0.7401232414030403</v>
       </c>
       <c r="E7">
-        <v>0.1022006763496783</v>
+        <v>0.102200676349625</v>
       </c>
       <c r="F7">
-        <v>14.23507949442444</v>
+        <v>14.23507949442416</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11.09811054949213</v>
+        <v>11.09811054949191</v>
       </c>
       <c r="I7">
-        <v>0.3117778574549419</v>
+        <v>0.3117778574549348</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1657847770404395</v>
+        <v>0.1657847770404963</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D8">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E8">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F8">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I8">
         <v>0.4315819344781957</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D9">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E9">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F9">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I9">
         <v>0.4315819344781957</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D10">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E10">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F10">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I10">
         <v>0.4315819344781957</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D11">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E11">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F11">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I11">
         <v>0.4315819344781957</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D12">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E12">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F12">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I12">
         <v>0.4315819344781957</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D13">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E13">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F13">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I13">
         <v>0.4315819344781957</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D14">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E14">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F14">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I14">
         <v>0.4315819344781957</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D15">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E15">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F15">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I15">
         <v>0.4315819344781957</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D16">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E16">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F16">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I16">
         <v>0.4315819344781957</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D17">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E17">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F17">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I17">
         <v>0.4315819344781957</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D18">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E18">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F18">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I18">
         <v>0.4315819344781957</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D19">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E19">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F19">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I19">
         <v>0.4315819344781957</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D20">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E20">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F20">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I20">
         <v>0.4315819344781957</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D21">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E21">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F21">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I21">
         <v>0.4315819344781957</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D22">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E22">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F22">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I22">
         <v>0.4315819344781957</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D23">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E23">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F23">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I23">
         <v>0.4315819344781957</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D24">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E24">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F24">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I24">
         <v>0.4315819344781957</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.263659016998858</v>
+        <v>0.2636590169994406</v>
       </c>
       <c r="D25">
-        <v>1.029892063084134</v>
+        <v>1.029892063084048</v>
       </c>
       <c r="E25">
-        <v>0.1402924374494852</v>
+        <v>0.1402924374494638</v>
       </c>
       <c r="F25">
-        <v>19.59875527280326</v>
+        <v>19.59875527280349</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15.28736243023445</v>
+        <v>15.28736243023459</v>
       </c>
       <c r="I25">
         <v>0.4315819344781957</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2289730478865977</v>
+        <v>0.2289730478864875</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2908250547652784</v>
+        <v>0.2825484060267769</v>
       </c>
       <c r="D2">
-        <v>1.135832975075772</v>
+        <v>1.106293536366536</v>
       </c>
       <c r="E2">
-        <v>0.1542099909061392</v>
+        <v>0.1514632692357765</v>
       </c>
       <c r="F2">
-        <v>21.54246072454117</v>
+        <v>21.08290437996385</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005087147024909409</v>
       </c>
       <c r="H2">
-        <v>16.80612750652176</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4753554996922631</v>
+        <v>16.44531564558682</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.465447886007766</v>
       </c>
       <c r="K2">
-        <v>0.252052538744195</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2470940489576599</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2217520525579317</v>
+        <v>0.2166003676278052</v>
       </c>
       <c r="D3">
-        <v>0.8664930072866071</v>
+        <v>0.8486195690194336</v>
       </c>
       <c r="E3">
-        <v>0.118807741236278</v>
+        <v>0.1171929372852674</v>
       </c>
       <c r="F3">
-        <v>16.58174155350179</v>
+        <v>16.31691905121517</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005682115757812878</v>
       </c>
       <c r="H3">
-        <v>12.9306591489302</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3640240509126969</v>
+        <v>12.72246166984857</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3583385116979372</v>
       </c>
       <c r="K3">
-        <v>0.1933425616212965</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.190510756381201</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1894913844521966</v>
+        <v>0.1854469608431515</v>
       </c>
       <c r="D4">
-        <v>0.7407614202039667</v>
+        <v>0.7269403184447185</v>
       </c>
       <c r="E4">
-        <v>0.1022844806720045</v>
+        <v>0.10099814740623</v>
       </c>
       <c r="F4">
-        <v>14.24695545091959</v>
+        <v>14.04835491383841</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005989314757830488</v>
       </c>
       <c r="H4">
-        <v>11.10738368362226</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3120416347879882</v>
+        <v>10.95109843613648</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3077289955221545</v>
       </c>
       <c r="K4">
-        <v>0.1659239041856679</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.16376594014719</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1776807062407357</v>
+        <v>0.1740100295269826</v>
       </c>
       <c r="D5">
-        <v>0.6947496320733535</v>
+        <v>0.6822839712010875</v>
       </c>
       <c r="E5">
-        <v>0.09624471529227563</v>
+        <v>0.09505813522493511</v>
       </c>
       <c r="F5">
-        <v>13.3901309833775</v>
+        <v>13.21345532279366</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006107237440007296</v>
       </c>
       <c r="H5">
-        <v>10.43837125450762</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2930266739206147</v>
+        <v>10.29927550160491</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2891586752347166</v>
       </c>
       <c r="K5">
-        <v>0.1558949434898658</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.153952272637504</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1757817696992277</v>
+        <v>0.1721699318064793</v>
       </c>
       <c r="D6">
-        <v>0.6873529334001773</v>
+        <v>0.6751000461829051</v>
       </c>
       <c r="E6">
-        <v>0.09527428803972882</v>
+        <v>0.09410286122086475</v>
       </c>
       <c r="F6">
-        <v>13.25228430166868</v>
+        <v>13.07903903233637</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006126495025870944</v>
       </c>
       <c r="H6">
-        <v>10.33074436835312</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2899705378512891</v>
+        <v>10.19433822256394</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2861716106025085</v>
       </c>
       <c r="K6">
-        <v>0.1542831348808846</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1523737563882683</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1893275917701942</v>
+        <v>0.1852884496205291</v>
       </c>
       <c r="D7">
-        <v>0.7401232414030403</v>
+        <v>0.7263213394939498</v>
       </c>
       <c r="E7">
-        <v>0.102200676349625</v>
+        <v>0.1009157939985421</v>
       </c>
       <c r="F7">
-        <v>14.23507949442416</v>
+        <v>14.03679037101176</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0005990928915768312</v>
       </c>
       <c r="H7">
-        <v>11.09811054949191</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3117778574549348</v>
+        <v>10.94206944700719</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3074715710665714</v>
       </c>
       <c r="K7">
-        <v>0.1657847770404963</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1636299004199486</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D8">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E8">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F8">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H8">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K8">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D9">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E9">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F9">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H9">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K9">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D10">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E10">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F10">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H10">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K10">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D11">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E11">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F11">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H11">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K11">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D12">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E12">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F12">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H12">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K12">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D13">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E13">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F13">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H13">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K13">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D14">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E14">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F14">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H14">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K14">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D15">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E15">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F15">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H15">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K15">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D16">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E16">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F16">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H16">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K16">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D17">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E17">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F17">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H17">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K17">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D18">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E18">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F18">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H18">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K18">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D19">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E19">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F19">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H19">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K19">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D20">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E20">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F20">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H20">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K20">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D21">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E21">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F21">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H21">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K21">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D22">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E22">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F22">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H22">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K22">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D23">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E23">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F23">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H23">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K23">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D24">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E24">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F24">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H24">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K24">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2636590169994406</v>
+        <v>0.2567818620086371</v>
       </c>
       <c r="D25">
-        <v>1.029892063084048</v>
+        <v>1.005611851323096</v>
       </c>
       <c r="E25">
-        <v>0.1402924374494638</v>
+        <v>0.1380835466535224</v>
       </c>
       <c r="F25">
-        <v>19.59875527280349</v>
+        <v>19.22758686203099</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005311674048979843</v>
       </c>
       <c r="H25">
-        <v>15.28736243023459</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4315819344781957</v>
+        <v>14.99581535383979</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.423617703999021</v>
       </c>
       <c r="K25">
-        <v>0.2289730478864875</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.2250010020054383</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2825484060267769</v>
+        <v>0.502171013186711</v>
       </c>
       <c r="D2">
-        <v>1.106293536366536</v>
+        <v>1.022698081463858</v>
       </c>
       <c r="E2">
-        <v>0.1514632692357765</v>
+        <v>0.2269631015595124</v>
       </c>
       <c r="F2">
-        <v>21.08290437996385</v>
+        <v>14.56870051821511</v>
       </c>
       <c r="G2">
-        <v>0.0005087147024909409</v>
+        <v>0.0006091301976611785</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.44531564558682</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.465447886007766</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.1003381303791</v>
       </c>
       <c r="L2">
-        <v>0.2470940489576599</v>
+        <v>0.211216148903091</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.5072677182347434</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2166003676278052</v>
+        <v>0.4155626751994248</v>
       </c>
       <c r="D3">
-        <v>0.8486195690194336</v>
+        <v>0.8165076482381721</v>
       </c>
       <c r="E3">
-        <v>0.1171929372852674</v>
+        <v>0.1868253716094088</v>
       </c>
       <c r="F3">
-        <v>16.31691905121517</v>
+        <v>11.68013458475684</v>
       </c>
       <c r="G3">
-        <v>0.0005682115757812878</v>
+        <v>0.0006611907660121569</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.72246166984857</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3583385116979372</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.0635289371703</v>
       </c>
       <c r="L3">
-        <v>0.190510756381201</v>
+        <v>0.1730349138703033</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.5685232390746862</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1854469608431515</v>
+        <v>0.3718643219223736</v>
       </c>
       <c r="D4">
-        <v>0.7269403184447185</v>
+        <v>0.7161220224390945</v>
       </c>
       <c r="E4">
-        <v>0.10099814740623</v>
+        <v>0.1665837359497679</v>
       </c>
       <c r="F4">
-        <v>14.04835491383841</v>
+        <v>10.23571954235317</v>
       </c>
       <c r="G4">
-        <v>0.0005989314757830488</v>
+        <v>0.0006899487804107519</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.95109843613648</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3077289955221545</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.472473173775</v>
       </c>
       <c r="L4">
-        <v>0.16376594014719</v>
+        <v>0.1537900559169145</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.6051570359147078</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1740100295269826</v>
+        <v>0.3555717317422022</v>
       </c>
       <c r="D5">
-        <v>0.6822839712010875</v>
+        <v>0.6793695077494135</v>
       </c>
       <c r="E5">
-        <v>0.09505813522493511</v>
+        <v>0.1590368490049272</v>
       </c>
       <c r="F5">
-        <v>13.21345532279366</v>
+        <v>9.699510083184066</v>
       </c>
       <c r="G5">
-        <v>0.0006107237440007296</v>
+        <v>0.0007012148700215882</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.29927550160491</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2891586752347166</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.86730810265448</v>
       </c>
       <c r="L5">
-        <v>0.153952272637504</v>
+        <v>0.1466151475841357</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.6200622420231738</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1721699318064793</v>
+        <v>0.3529415214476614</v>
       </c>
       <c r="D6">
-        <v>0.6751000461829051</v>
+        <v>0.6734721599122508</v>
       </c>
       <c r="E6">
-        <v>0.09410286122086475</v>
+        <v>0.1578184658679298</v>
       </c>
       <c r="F6">
-        <v>13.07903903233637</v>
+        <v>9.613066353391474</v>
       </c>
       <c r="G6">
-        <v>0.0006126495025870944</v>
+        <v>0.0007030648838998677</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.19433822256394</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2861716106025085</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.7689488108058</v>
       </c>
       <c r="L6">
-        <v>0.1523737563882683</v>
+        <v>0.1454567956359867</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.6225398745144588</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1852884496205291</v>
+        <v>0.3716392414424661</v>
       </c>
       <c r="D7">
-        <v>0.7263213394939498</v>
+        <v>0.7156117207885302</v>
       </c>
       <c r="E7">
-        <v>0.1009157939985421</v>
+        <v>0.1664794785651864</v>
       </c>
       <c r="F7">
-        <v>14.03679037101176</v>
+        <v>10.22830317616942</v>
       </c>
       <c r="G7">
-        <v>0.0005990928915768312</v>
+        <v>0.0006901022353418999</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.94206944700719</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3074715710665714</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.46415978891434</v>
       </c>
       <c r="L7">
-        <v>0.1636299004199486</v>
+        <v>0.153690937926747</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.6053579531175473</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D8">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E8">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F8">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G8">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L8">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D9">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E9">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F9">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G9">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L9">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D10">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E10">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F10">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G10">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L10">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D11">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E11">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F11">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G11">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L11">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D12">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E12">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F12">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G12">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L12">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D13">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E13">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F13">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G13">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L13">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D14">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E14">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F14">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G14">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L14">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D15">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E15">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F15">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G15">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L15">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D16">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E16">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F16">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G16">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L16">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D17">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E17">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F17">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G17">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L17">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D18">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E18">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F18">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G18">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L18">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D19">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E19">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F19">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G19">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L19">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D20">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E20">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F20">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G20">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L20">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D21">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E21">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F21">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G21">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L21">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D22">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E22">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F22">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G22">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L22">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D23">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E23">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F23">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G23">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L23">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D24">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E24">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F24">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G24">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L24">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2567818620086371</v>
+        <v>0.4695932144656751</v>
       </c>
       <c r="D25">
-        <v>1.005611851323096</v>
+        <v>0.9440589489193485</v>
       </c>
       <c r="E25">
-        <v>0.1380835466535224</v>
+        <v>0.2118605292786171</v>
       </c>
       <c r="F25">
-        <v>19.22758686203099</v>
+        <v>13.47828070027236</v>
       </c>
       <c r="G25">
-        <v>0.0005311674048979843</v>
+        <v>0.0006280504398321829</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.99581535383979</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.423617703999021</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.97446636899593</v>
       </c>
       <c r="L25">
-        <v>0.2250010020054383</v>
+        <v>0.1968452017155045</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5287867866143188</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.502171013186711</v>
+        <v>0.4586317146612657</v>
       </c>
       <c r="D2">
-        <v>1.022698081463858</v>
+        <v>0.3112698095547302</v>
       </c>
       <c r="E2">
-        <v>0.2269631015595124</v>
+        <v>0.2064967237953255</v>
       </c>
       <c r="F2">
-        <v>14.56870051821511</v>
+        <v>6.823216452811607</v>
       </c>
       <c r="G2">
-        <v>0.0006091301976611785</v>
+        <v>8.193417089642651</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.011489358630001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.1003381303791</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.211216148903091</v>
+        <v>0.1915123161193719</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5072677182347434</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4155626751994248</v>
+        <v>0.3985609468845439</v>
       </c>
       <c r="D3">
-        <v>0.8165076482381721</v>
+        <v>0.2646769208504907</v>
       </c>
       <c r="E3">
-        <v>0.1868253716094088</v>
+        <v>0.1787805119231578</v>
       </c>
       <c r="F3">
-        <v>11.68013458475684</v>
+        <v>5.802478343674238</v>
       </c>
       <c r="G3">
-        <v>0.0006611907660121569</v>
+        <v>6.950772208691149</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.43216721739509</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.0635289371703</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1730349138703033</v>
+        <v>0.1652488568003676</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5685232390746862</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3718643219223736</v>
+        <v>0.3640249035108809</v>
       </c>
       <c r="D4">
-        <v>0.7161220224390945</v>
+        <v>0.2378997651223642</v>
       </c>
       <c r="E4">
-        <v>0.1665837359497679</v>
+        <v>0.1628501555820598</v>
       </c>
       <c r="F4">
-        <v>10.23571954235317</v>
+        <v>5.211041376224102</v>
       </c>
       <c r="G4">
-        <v>0.0006899487804107519</v>
+        <v>6.230567228428583</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.097327659573807</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.472473173775</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1537900559169145</v>
+        <v>0.1501577798987626</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6051570359147078</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3555717317422022</v>
+        <v>0.3504320524584159</v>
       </c>
       <c r="D5">
-        <v>0.6793695077494135</v>
+        <v>0.2273568687918015</v>
       </c>
       <c r="E5">
-        <v>0.1590368490049272</v>
+        <v>0.156580580720231</v>
       </c>
       <c r="F5">
-        <v>9.699510083184066</v>
+        <v>4.977166558651476</v>
       </c>
       <c r="G5">
-        <v>0.0007012148700215882</v>
+        <v>5.945713997569953</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.96511485008574</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.86730810265448</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1466151475841357</v>
+        <v>0.1442189496461168</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6200622420231738</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3529415214476614</v>
+        <v>0.3482012519221485</v>
       </c>
       <c r="D6">
-        <v>0.6734721599122508</v>
+        <v>0.2256262219512735</v>
       </c>
       <c r="E6">
-        <v>0.1578184658679298</v>
+        <v>0.1555516488102775</v>
       </c>
       <c r="F6">
-        <v>9.613066353391474</v>
+        <v>4.93871928420009</v>
       </c>
       <c r="G6">
-        <v>0.0007030648838998677</v>
+        <v>5.89888240130017</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.943391441408892</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.7689488108058</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1454567956359867</v>
+        <v>0.1432443080867856</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6225398745144588</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3716392414424661</v>
+        <v>0.3638397661155182</v>
       </c>
       <c r="D7">
-        <v>0.7156117207885302</v>
+        <v>0.2377561918918474</v>
       </c>
       <c r="E7">
-        <v>0.1664794785651864</v>
+        <v>0.1627647620479351</v>
       </c>
       <c r="F7">
-        <v>10.22830317616942</v>
+        <v>5.207860370668442</v>
       </c>
       <c r="G7">
-        <v>0.0006901022353418999</v>
+        <v>6.226693103959349</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.095528612869828</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.46415978891434</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.153690937926747</v>
+        <v>0.1500768901756899</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6053579531175473</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4695932144656751</v>
+        <v>0.4373578639132916</v>
       </c>
       <c r="D8">
-        <v>0.9440589489193485</v>
+        <v>0.2947623371459827</v>
       </c>
       <c r="E8">
-        <v>0.2118605292786171</v>
+        <v>0.196679676958226</v>
       </c>
       <c r="F8">
-        <v>13.47828070027236</v>
+        <v>6.462763192167529</v>
       </c>
       <c r="G8">
-        <v>0.0006280504398321829</v>
+        <v>7.754635027764095</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.806723679525021</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1968452017155045</v>
+        <v>0.1822084474745012</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4695932144656751</v>
+        <v>0.6069358654757195</v>
       </c>
       <c r="D9">
-        <v>0.9440589489193485</v>
+        <v>0.4268073152808824</v>
       </c>
       <c r="E9">
-        <v>0.2118605292786171</v>
+        <v>0.2749988937932102</v>
       </c>
       <c r="F9">
-        <v>13.47828070027236</v>
+        <v>9.311152091675211</v>
       </c>
       <c r="G9">
-        <v>0.0006280504398321829</v>
+        <v>11.22185098726936</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.429509296704055</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1968452017155045</v>
+        <v>0.2564941829559899</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4695932144656751</v>
+        <v>0.7616359708840719</v>
       </c>
       <c r="D10">
-        <v>0.9440589489193485</v>
+        <v>0.54870772001766</v>
       </c>
       <c r="E10">
-        <v>0.2118605292786171</v>
+        <v>0.3466218459655721</v>
       </c>
       <c r="F10">
-        <v>13.47828070027236</v>
+        <v>11.87144664811262</v>
       </c>
       <c r="G10">
-        <v>0.0006280504398321829</v>
+        <v>14.33970645166954</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.895740712354439</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1968452017155045</v>
+        <v>0.3245876289641956</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4695932144656751</v>
+        <v>0.8448027306121162</v>
       </c>
       <c r="D11">
-        <v>0.9440589489193485</v>
+        <v>0.6150337249569873</v>
       </c>
       <c r="E11">
-        <v>0.2118605292786171</v>
+        <v>0.3852145766380772</v>
       </c>
       <c r="F11">
-        <v>13.47828070027236</v>
+        <v>13.23649340274414</v>
       </c>
       <c r="G11">
-        <v>0.0006280504398321829</v>
+        <v>16.00317022916238</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.679944162411175</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1968452017155045</v>
+        <v>0.361358072054756</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4695932144656751</v>
+        <v>0.8791549061946284</v>
       </c>
       <c r="D12">
-        <v>0.9440589489193485</v>
+        <v>0.6426189304056891</v>
       </c>
       <c r="E12">
-        <v>0.2118605292786171</v>
+        <v>0.4011757666066984</v>
       </c>
       <c r="F12">
-        <v>13.47828070027236</v>
+        <v>13.7983048697443</v>
       </c>
       <c r="G12">
-        <v>0.0006280504398321829</v>
+        <v>16.68810274850813</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.003166897875531</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1968452017155045</v>
+        <v>0.3765839283713319</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4695932144656751</v>
+        <v>0.8716045002511805</v>
       </c>
       <c r="D13">
-        <v>0.9440589489193485</v>
+        <v>0.6365458300892328</v>
       </c>
       <c r="E13">
-        <v>0.2118605292786171</v>
+        <v>0.3976665200211045</v>
       </c>
       <c r="F13">
-        <v>13.47828070027236</v>
+        <v>13.67491886356396</v>
       </c>
       <c r="G13">
-        <v>0.0006280504398321829</v>
+        <v>16.53766027164994</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.932157102543499</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1968452017155045</v>
+        <v>0.3732353917226163</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4695932144656751</v>
+        <v>0.8475630008292114</v>
       </c>
       <c r="D14">
-        <v>0.9440589489193485</v>
+        <v>0.6172459832144455</v>
       </c>
       <c r="E14">
-        <v>0.2118605292786171</v>
+        <v>0.3864966352412225</v>
       </c>
       <c r="F14">
-        <v>13.47828070027236</v>
+        <v>13.28167827843845</v>
       </c>
       <c r="G14">
-        <v>0.0006280504398321829</v>
+        <v>16.05825041821942</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.705930056480156</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1968452017155045</v>
+        <v>0.3625806559747815</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4695932144656751</v>
+        <v>0.8332521452388164</v>
       </c>
       <c r="D15">
-        <v>0.9440589489193485</v>
+        <v>0.6057842499001538</v>
       </c>
       <c r="E15">
-        <v>0.2118605292786171</v>
+        <v>0.3798505428312637</v>
       </c>
       <c r="F15">
-        <v>13.47828070027236</v>
+        <v>13.04733209129978</v>
       </c>
       <c r="G15">
-        <v>0.0006280504398321829</v>
+        <v>15.77259608041538</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.571176248152881</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1968452017155045</v>
+        <v>0.3562436383543428</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4695932144656751</v>
+        <v>0.7565302999409482</v>
       </c>
       <c r="D16">
-        <v>0.9440589489193485</v>
+        <v>0.5446556622907508</v>
       </c>
       <c r="E16">
-        <v>0.2118605292786171</v>
+        <v>0.3442547658710993</v>
       </c>
       <c r="F16">
-        <v>13.47828070027236</v>
+        <v>11.78740682546322</v>
       </c>
       <c r="G16">
-        <v>0.0006280504398321829</v>
+        <v>14.23732497742611</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.84751465717693</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1968452017155045</v>
+        <v>0.3223342571280199</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4695932144656751</v>
+        <v>0.7132754290577168</v>
       </c>
       <c r="D17">
-        <v>0.9440589489193485</v>
+        <v>0.5104117547147666</v>
       </c>
       <c r="E17">
-        <v>0.2118605292786171</v>
+        <v>0.3242104549723379</v>
       </c>
       <c r="F17">
-        <v>13.47828070027236</v>
+        <v>11.07424650676202</v>
       </c>
       <c r="G17">
-        <v>0.0006280504398321829</v>
+        <v>13.36864280453023</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.438528201123574</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1968452017155045</v>
+        <v>0.3032612956766201</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4695932144656751</v>
+        <v>0.689516225119803</v>
       </c>
       <c r="D18">
-        <v>0.9440589489193485</v>
+        <v>0.4916638105439119</v>
       </c>
       <c r="E18">
-        <v>0.2118605292786171</v>
+        <v>0.3132073571999641</v>
       </c>
       <c r="F18">
-        <v>13.47828070027236</v>
+        <v>10.68158403891221</v>
       </c>
       <c r="G18">
-        <v>0.0006280504398321829</v>
+        <v>12.89043859483462</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.213544122872349</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1968452017155045</v>
+        <v>0.2927976395907308</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4695932144656751</v>
+        <v>0.6816429315783523</v>
       </c>
       <c r="D19">
-        <v>0.9440589489193485</v>
+        <v>0.4854603152886341</v>
       </c>
       <c r="E19">
-        <v>0.2118605292786171</v>
+        <v>0.3095622066155599</v>
       </c>
       <c r="F19">
-        <v>13.47828070027236</v>
+        <v>10.55131145096587</v>
       </c>
       <c r="G19">
-        <v>0.0006280504398321829</v>
+        <v>12.7317985344248</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.138934155411334</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1968452017155045</v>
+        <v>0.2893321361713959</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4695932144656751</v>
+        <v>0.7177587687177436</v>
       </c>
       <c r="D20">
-        <v>0.9440589489193485</v>
+        <v>0.5139542555571381</v>
       </c>
       <c r="E20">
-        <v>0.2118605292786171</v>
+        <v>0.3262872688255527</v>
       </c>
       <c r="F20">
-        <v>13.47828070027236</v>
+        <v>11.14826558184595</v>
       </c>
       <c r="G20">
-        <v>0.0006280504398321829</v>
+        <v>13.45879362854674</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.480955198824802</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1968452017155045</v>
+        <v>0.3052367771728228</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4695932144656751</v>
+        <v>0.8545350010944901</v>
       </c>
       <c r="D21">
-        <v>0.9440589489193485</v>
+        <v>0.6228370750641261</v>
       </c>
       <c r="E21">
-        <v>0.2118605292786171</v>
+        <v>0.3897352616691094</v>
       </c>
       <c r="F21">
-        <v>13.47828070027236</v>
+        <v>13.39577492780063</v>
       </c>
       <c r="G21">
-        <v>0.0006280504398321829</v>
+        <v>16.19733911071603</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.771555012529063</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1968452017155045</v>
+        <v>0.3656693584704271</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4695932144656751</v>
+        <v>0.9618153124816331</v>
       </c>
       <c r="D22">
-        <v>0.9440589489193485</v>
+        <v>0.7094980214576481</v>
       </c>
       <c r="E22">
-        <v>0.2118605292786171</v>
+        <v>0.43963575524851</v>
       </c>
       <c r="F22">
-        <v>13.47828070027236</v>
+        <v>15.14569387987143</v>
       </c>
       <c r="G22">
-        <v>0.0006280504398321829</v>
+        <v>18.33160392194378</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.779438096995193</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1968452017155045</v>
+        <v>0.4133197879085202</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4695932144656751</v>
+        <v>0.9023303756660539</v>
       </c>
       <c r="D23">
-        <v>0.9440589489193485</v>
+        <v>0.6612962510716329</v>
       </c>
       <c r="E23">
-        <v>0.2118605292786171</v>
+        <v>0.4119510256689765</v>
       </c>
       <c r="F23">
-        <v>13.47828070027236</v>
+        <v>14.17669667577371</v>
       </c>
       <c r="G23">
-        <v>0.0006280504398321829</v>
+        <v>17.14952951980979</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.221015371799126</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1968452017155045</v>
+        <v>0.3868691865413183</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4695932144656751</v>
+        <v>0.7157284621251847</v>
       </c>
       <c r="D24">
-        <v>0.9440589489193485</v>
+        <v>0.512349821942081</v>
       </c>
       <c r="E24">
-        <v>0.2118605292786171</v>
+        <v>0.3253467500140701</v>
       </c>
       <c r="F24">
-        <v>13.47828070027236</v>
+        <v>11.11474855398183</v>
       </c>
       <c r="G24">
-        <v>0.0006280504398321829</v>
+        <v>13.41797161486255</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.461742938861278</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1968452017155045</v>
+        <v>0.3043421289861357</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4695932144656751</v>
+        <v>0.5571815134993301</v>
       </c>
       <c r="D25">
-        <v>0.9440589489193485</v>
+        <v>0.38793254222999</v>
       </c>
       <c r="E25">
-        <v>0.2118605292786171</v>
+        <v>0.2520024235128773</v>
       </c>
       <c r="F25">
-        <v>13.47828070027236</v>
+        <v>8.480752006334342</v>
       </c>
       <c r="G25">
-        <v>0.0006280504398321829</v>
+        <v>10.21100064283104</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.955388822889574</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.97446636899593</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1968452017155045</v>
+        <v>0.2346659878248403</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5287867866143188</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4586317146612657</v>
+        <v>0.4165321785012566</v>
       </c>
       <c r="D2">
-        <v>0.3112698095547302</v>
+        <v>0.1770283408321944</v>
       </c>
       <c r="E2">
-        <v>0.2064967237953255</v>
+        <v>0.1759721268987846</v>
       </c>
       <c r="F2">
-        <v>6.823216452811607</v>
+        <v>3.387674600170385</v>
       </c>
       <c r="G2">
-        <v>8.193417089642651</v>
+        <v>3.717185640561581</v>
       </c>
       <c r="H2">
-        <v>4.011489358630001</v>
+        <v>2.478075300866749</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1915123161193719</v>
+        <v>0.1535809029467927</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3985609468845439</v>
+        <v>0.408617831278633</v>
       </c>
       <c r="D3">
-        <v>0.2646769208504907</v>
+        <v>0.1696488696270393</v>
       </c>
       <c r="E3">
-        <v>0.1787805119231578</v>
+        <v>0.172217812073022</v>
       </c>
       <c r="F3">
-        <v>5.802478343674238</v>
+        <v>3.20830773157536</v>
       </c>
       <c r="G3">
-        <v>6.950772208691149</v>
+        <v>3.493995001652593</v>
       </c>
       <c r="H3">
-        <v>3.43216721739509</v>
+        <v>2.383840216937926</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1652488568003676</v>
+        <v>0.1499384042475285</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3640249035108809</v>
+        <v>0.4040558284525844</v>
       </c>
       <c r="D4">
-        <v>0.2378997651223642</v>
+        <v>0.1652659502851179</v>
       </c>
       <c r="E4">
-        <v>0.1628501555820598</v>
+        <v>0.1700421457223378</v>
       </c>
       <c r="F4">
-        <v>5.211041376224102</v>
+        <v>3.100954056404646</v>
       </c>
       <c r="G4">
-        <v>6.230567228428583</v>
+        <v>3.360036834047548</v>
       </c>
       <c r="H4">
-        <v>3.097327659573807</v>
+        <v>2.327943079853128</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1501577798987626</v>
+        <v>0.1478181069541549</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3504320524584159</v>
+        <v>0.402270600351784</v>
       </c>
       <c r="D5">
-        <v>0.2273568687918015</v>
+        <v>0.1635162936335064</v>
       </c>
       <c r="E5">
-        <v>0.156580580720231</v>
+        <v>0.1691876484232715</v>
       </c>
       <c r="F5">
-        <v>4.977166558651476</v>
+        <v>3.05788877680348</v>
       </c>
       <c r="G5">
-        <v>5.945713997569953</v>
+        <v>3.306202523923787</v>
       </c>
       <c r="H5">
-        <v>2.96511485008574</v>
+        <v>2.305649011294008</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1442189496461168</v>
+        <v>0.146982845631328</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3482012519221485</v>
+        <v>0.4019785956473072</v>
       </c>
       <c r="D6">
-        <v>0.2256262219512735</v>
+        <v>0.1632279403856529</v>
       </c>
       <c r="E6">
-        <v>0.1555516488102775</v>
+        <v>0.1690476856441698</v>
       </c>
       <c r="F6">
-        <v>4.93871928420009</v>
+        <v>3.050778551949605</v>
       </c>
       <c r="G6">
-        <v>5.89888240130017</v>
+        <v>3.297308380218055</v>
       </c>
       <c r="H6">
-        <v>2.943391441408892</v>
+        <v>2.301976091865527</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1432443080867856</v>
+        <v>0.146845876393435</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3638397661155182</v>
+        <v>0.4040314545845263</v>
       </c>
       <c r="D7">
-        <v>0.2377561918918474</v>
+        <v>0.1652422074195385</v>
       </c>
       <c r="E7">
-        <v>0.1627647620479351</v>
+        <v>0.1700304922802758</v>
       </c>
       <c r="F7">
-        <v>5.207860370668442</v>
+        <v>3.100370522109301</v>
       </c>
       <c r="G7">
-        <v>6.226693103959349</v>
+        <v>3.359307776180344</v>
       </c>
       <c r="H7">
-        <v>3.095528612869828</v>
+        <v>2.32764046474864</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1500768901756899</v>
+        <v>0.1478067263899376</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4373578639132916</v>
+        <v>0.4137409840663224</v>
       </c>
       <c r="D8">
-        <v>0.2947623371459827</v>
+        <v>0.1744526551100023</v>
       </c>
       <c r="E8">
-        <v>0.196679676958226</v>
+        <v>0.1746504803007056</v>
       </c>
       <c r="F8">
-        <v>6.462763192167529</v>
+        <v>3.325242206422672</v>
       </c>
       <c r="G8">
-        <v>7.754635027764095</v>
+        <v>3.639577500156065</v>
       </c>
       <c r="H8">
-        <v>3.806723679525021</v>
+        <v>2.4451698046758</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1822084474745012</v>
+        <v>0.1523005766433556</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6069358654757195</v>
+        <v>0.4351876940660304</v>
       </c>
       <c r="D9">
-        <v>0.4268073152808824</v>
+        <v>0.1937285989380229</v>
       </c>
       <c r="E9">
-        <v>0.2749988937932102</v>
+        <v>0.1847596816637846</v>
       </c>
       <c r="F9">
-        <v>9.311152091675211</v>
+        <v>3.789042000569367</v>
       </c>
       <c r="G9">
-        <v>11.22185098726936</v>
+        <v>4.21460069015302</v>
       </c>
       <c r="H9">
-        <v>5.429509296704055</v>
+        <v>2.691668150337307</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2564941829559899</v>
+        <v>0.1620563131877475</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7616359708840719</v>
+        <v>0.4524796716726485</v>
       </c>
       <c r="D10">
-        <v>0.54870772001766</v>
+        <v>0.2086880545117822</v>
       </c>
       <c r="E10">
-        <v>0.3466218459655721</v>
+        <v>0.1928588232532178</v>
       </c>
       <c r="F10">
-        <v>11.87144664811262</v>
+        <v>4.144858485178361</v>
       </c>
       <c r="G10">
-        <v>14.33970645166954</v>
+        <v>4.653973240002358</v>
       </c>
       <c r="H10">
-        <v>6.895740712354439</v>
+        <v>2.883189741785941</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3245876289641956</v>
+        <v>0.1698300199496714</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8448027306121162</v>
+        <v>0.4606950994637202</v>
       </c>
       <c r="D11">
-        <v>0.6150337249569873</v>
+        <v>0.2156796332964177</v>
       </c>
       <c r="E11">
-        <v>0.3852145766380772</v>
+        <v>0.1966965571949544</v>
       </c>
       <c r="F11">
-        <v>13.23649340274414</v>
+        <v>4.310259620081922</v>
       </c>
       <c r="G11">
-        <v>16.00317022916238</v>
+        <v>4.857845151148069</v>
       </c>
       <c r="H11">
-        <v>7.679944162411175</v>
+        <v>2.972728262915098</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.361358072054756</v>
+        <v>0.1735051820266591</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8791549061946284</v>
+        <v>0.4638575714740796</v>
       </c>
       <c r="D12">
-        <v>0.6426189304056891</v>
+        <v>0.2183550493000723</v>
       </c>
       <c r="E12">
-        <v>0.4011757666066984</v>
+        <v>0.1981724717683875</v>
       </c>
       <c r="F12">
-        <v>13.7983048697443</v>
+        <v>4.373422961433505</v>
       </c>
       <c r="G12">
-        <v>16.68810274850813</v>
+        <v>4.935647507224985</v>
       </c>
       <c r="H12">
-        <v>8.003166897875531</v>
+        <v>3.006993552294546</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3765839283713319</v>
+        <v>0.1749174252540087</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.8716045002511805</v>
+        <v>0.4631741670932286</v>
       </c>
       <c r="D13">
-        <v>0.6365458300892328</v>
+        <v>0.2177775946002498</v>
       </c>
       <c r="E13">
-        <v>0.3976665200211045</v>
+        <v>0.1978535902517109</v>
       </c>
       <c r="F13">
-        <v>13.67491886356396</v>
+        <v>4.359795717886527</v>
       </c>
       <c r="G13">
-        <v>16.53766027164994</v>
+        <v>4.918864256875111</v>
       </c>
       <c r="H13">
-        <v>7.932157102543499</v>
+        <v>2.999597750250075</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3732353917226163</v>
+        <v>0.1746123506163428</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.8475630008292114</v>
+        <v>0.4609542391178536</v>
       </c>
       <c r="D14">
-        <v>0.6172459832144455</v>
+        <v>0.2158991769627789</v>
       </c>
       <c r="E14">
-        <v>0.3864966352412225</v>
+        <v>0.1968175242162218</v>
       </c>
       <c r="F14">
-        <v>13.28167827843845</v>
+        <v>4.315445372688544</v>
       </c>
       <c r="G14">
-        <v>16.05825041821942</v>
+        <v>4.864233814428871</v>
       </c>
       <c r="H14">
-        <v>7.705930056480156</v>
+        <v>2.975540024997542</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3625806559747815</v>
+        <v>0.1736209531485713</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8332521452388164</v>
+        <v>0.4596012096658626</v>
       </c>
       <c r="D15">
-        <v>0.6057842499001538</v>
+        <v>0.2147522513859315</v>
       </c>
       <c r="E15">
-        <v>0.3798505428312637</v>
+        <v>0.1961858711810223</v>
       </c>
       <c r="F15">
-        <v>13.04733209129978</v>
+        <v>4.288349091472469</v>
       </c>
       <c r="G15">
-        <v>15.77259608041538</v>
+        <v>4.830850061484455</v>
       </c>
       <c r="H15">
-        <v>7.571176248152881</v>
+        <v>2.960851082899808</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3562436383543428</v>
+        <v>0.1730163856635585</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7565302999409482</v>
+        <v>0.4519499071875259</v>
       </c>
       <c r="D16">
-        <v>0.5446556622907508</v>
+        <v>0.2082349787647502</v>
       </c>
       <c r="E16">
-        <v>0.3442547658710993</v>
+        <v>0.1926111549514857</v>
       </c>
       <c r="F16">
-        <v>11.78740682546322</v>
+        <v>4.134122087581659</v>
       </c>
       <c r="G16">
-        <v>14.23732497742611</v>
+        <v>4.6407323570362</v>
       </c>
       <c r="H16">
-        <v>6.84751465717693</v>
+        <v>2.877387772502686</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3223342571280199</v>
+        <v>0.1695926820743381</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7132754290577168</v>
+        <v>0.4473463998458271</v>
       </c>
       <c r="D17">
-        <v>0.5104117547147666</v>
+        <v>0.2042853293908991</v>
       </c>
       <c r="E17">
-        <v>0.3242104549723379</v>
+        <v>0.1904578833457293</v>
       </c>
       <c r="F17">
-        <v>11.07424650676202</v>
+        <v>4.040429598389409</v>
       </c>
       <c r="G17">
-        <v>13.36864280453023</v>
+        <v>4.525143391300105</v>
       </c>
       <c r="H17">
-        <v>6.438528201123574</v>
+        <v>2.826812389448946</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3032612956766201</v>
+        <v>0.1675283167677435</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.689516225119803</v>
+        <v>0.4447313769314292</v>
       </c>
       <c r="D18">
-        <v>0.4916638105439119</v>
+        <v>0.2020310800899949</v>
       </c>
       <c r="E18">
-        <v>0.3132073571999641</v>
+        <v>0.1892337800419313</v>
       </c>
       <c r="F18">
-        <v>10.68158403891221</v>
+        <v>3.986871930230905</v>
       </c>
       <c r="G18">
-        <v>12.89043859483462</v>
+        <v>4.459034521134242</v>
       </c>
       <c r="H18">
-        <v>6.213544122872349</v>
+        <v>2.797949289413168</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2927976395907308</v>
+        <v>0.1663539836133907</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.6816429315783523</v>
+        <v>0.4438515699405912</v>
       </c>
       <c r="D19">
-        <v>0.4854603152886341</v>
+        <v>0.2012708017278442</v>
       </c>
       <c r="E19">
-        <v>0.3095622066155599</v>
+        <v>0.188821775545513</v>
       </c>
       <c r="F19">
-        <v>10.55131145096587</v>
+        <v>3.968794587278524</v>
       </c>
       <c r="G19">
-        <v>12.7317985344248</v>
+        <v>4.43671481326902</v>
       </c>
       <c r="H19">
-        <v>6.138934155411334</v>
+        <v>2.78821529208733</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2893321361713959</v>
+        <v>0.1659585963332972</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7177587687177436</v>
+        <v>0.4478330482260162</v>
       </c>
       <c r="D20">
-        <v>0.5139542555571381</v>
+        <v>0.2047039592654301</v>
       </c>
       <c r="E20">
-        <v>0.3262872688255527</v>
+        <v>0.190685608069515</v>
       </c>
       <c r="F20">
-        <v>11.14826558184595</v>
+        <v>4.050368838828405</v>
       </c>
       <c r="G20">
-        <v>13.45879362854674</v>
+        <v>4.537409057556147</v>
       </c>
       <c r="H20">
-        <v>6.480955198824802</v>
+        <v>2.832172696867929</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3052367771728228</v>
+        <v>0.1677467188201547</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8545350010944901</v>
+        <v>0.4616048787614773</v>
       </c>
       <c r="D21">
-        <v>0.6228370750641261</v>
+        <v>0.2164501492104591</v>
       </c>
       <c r="E21">
-        <v>0.3897352616691094</v>
+        <v>0.1971212224547401</v>
       </c>
       <c r="F21">
-        <v>13.39577492780063</v>
+        <v>4.32845760456712</v>
       </c>
       <c r="G21">
-        <v>16.19733911071603</v>
+        <v>4.880263595686813</v>
       </c>
       <c r="H21">
-        <v>7.771555012529063</v>
+        <v>2.98259652285725</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3656693584704271</v>
+        <v>0.1739115885415998</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.9618153124816331</v>
+        <v>0.4709061736978128</v>
       </c>
       <c r="D22">
-        <v>0.7094980214576481</v>
+        <v>0.2242898467257533</v>
       </c>
       <c r="E22">
-        <v>0.43963575524851</v>
+        <v>0.2014595680059585</v>
       </c>
       <c r="F22">
-        <v>15.14569387987143</v>
+        <v>4.513301266596727</v>
       </c>
       <c r="G22">
-        <v>18.33160392194378</v>
+        <v>5.107851384150877</v>
       </c>
       <c r="H22">
-        <v>8.779438096995193</v>
+        <v>3.083005467025487</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4133197879085202</v>
+        <v>0.1780606847378436</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9023303756660539</v>
+        <v>0.4659139666193539</v>
       </c>
       <c r="D23">
-        <v>0.6612962510716329</v>
+        <v>0.2200903934246128</v>
       </c>
       <c r="E23">
-        <v>0.4119510256689765</v>
+        <v>0.1991318052415565</v>
       </c>
       <c r="F23">
-        <v>14.17669667577371</v>
+        <v>4.414356361456669</v>
       </c>
       <c r="G23">
-        <v>17.14952951980979</v>
+        <v>4.986053475071969</v>
       </c>
       <c r="H23">
-        <v>8.221015371799126</v>
+        <v>3.029219319744527</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3868691865413183</v>
+        <v>0.1758350602495398</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7157284621251847</v>
+        <v>0.4476129361772792</v>
       </c>
       <c r="D24">
-        <v>0.512349821942081</v>
+        <v>0.2045146455190263</v>
       </c>
       <c r="E24">
-        <v>0.3253467500140701</v>
+        <v>0.1905826106539266</v>
       </c>
       <c r="F24">
-        <v>11.11474855398183</v>
+        <v>4.045874352325768</v>
       </c>
       <c r="G24">
-        <v>13.41797161486255</v>
+        <v>4.531862677884931</v>
       </c>
       <c r="H24">
-        <v>6.461742938861278</v>
+        <v>2.829748638198907</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3043421289861357</v>
+        <v>0.1676479403671749</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5571815134993301</v>
+        <v>0.4291212773185293</v>
       </c>
       <c r="D25">
-        <v>0.38793254222999</v>
+        <v>0.18837815320272</v>
       </c>
       <c r="E25">
-        <v>0.2520024235128773</v>
+        <v>0.1819092697119373</v>
       </c>
       <c r="F25">
-        <v>8.480752006334342</v>
+        <v>3.661011727456582</v>
       </c>
       <c r="G25">
-        <v>10.21100064283104</v>
+        <v>4.056177817182743</v>
       </c>
       <c r="H25">
-        <v>4.955388822889574</v>
+        <v>2.623202387293077</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2346659878248403</v>
+        <v>0.1593129888774882</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4165321785012566</v>
+        <v>0.4586317146612942</v>
       </c>
       <c r="D2">
-        <v>0.1770283408321944</v>
+        <v>0.3112698095546591</v>
       </c>
       <c r="E2">
-        <v>0.1759721268987846</v>
+        <v>0.2064967237953184</v>
       </c>
       <c r="F2">
-        <v>3.387674600170385</v>
+        <v>6.823216452811693</v>
       </c>
       <c r="G2">
-        <v>3.717185640561581</v>
+        <v>8.193417089642764</v>
       </c>
       <c r="H2">
-        <v>2.478075300866749</v>
+        <v>4.011489358630115</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1535809029467927</v>
+        <v>0.1915123161193009</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.408617831278633</v>
+        <v>0.3985609468852829</v>
       </c>
       <c r="D3">
-        <v>0.1696488696270393</v>
+        <v>0.2646769208505049</v>
       </c>
       <c r="E3">
-        <v>0.172217812073022</v>
+        <v>0.1787805119231081</v>
       </c>
       <c r="F3">
-        <v>3.20830773157536</v>
+        <v>5.80247834367421</v>
       </c>
       <c r="G3">
-        <v>3.493995001652593</v>
+        <v>6.950772208691092</v>
       </c>
       <c r="H3">
-        <v>2.383840216937926</v>
+        <v>3.43216721739509</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1499384042475285</v>
+        <v>0.1652488568003605</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4040558284525844</v>
+        <v>0.3640249035108809</v>
       </c>
       <c r="D4">
-        <v>0.1652659502851179</v>
+        <v>0.2378997651216537</v>
       </c>
       <c r="E4">
-        <v>0.1700421457223378</v>
+        <v>0.1628501555819675</v>
       </c>
       <c r="F4">
-        <v>3.100954056404646</v>
+        <v>5.211041376224102</v>
       </c>
       <c r="G4">
-        <v>3.360036834047548</v>
+        <v>6.230567228428754</v>
       </c>
       <c r="H4">
-        <v>2.327943079853128</v>
+        <v>3.097327659573864</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1478181069541549</v>
+        <v>0.1501577798987768</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.402270600351784</v>
+        <v>0.3504320524591833</v>
       </c>
       <c r="D5">
-        <v>0.1635162936335064</v>
+        <v>0.2273568687919294</v>
       </c>
       <c r="E5">
-        <v>0.1691876484232715</v>
+        <v>0.1565805807202487</v>
       </c>
       <c r="F5">
-        <v>3.05788877680348</v>
+        <v>4.977166558651476</v>
       </c>
       <c r="G5">
-        <v>3.306202523923787</v>
+        <v>5.945713997569896</v>
       </c>
       <c r="H5">
-        <v>2.305649011294008</v>
+        <v>2.965114850085627</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.146982845631328</v>
+        <v>0.1442189496460813</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4019785956473072</v>
+        <v>0.34820125192266</v>
       </c>
       <c r="D6">
-        <v>0.1632279403856529</v>
+        <v>0.225626221951245</v>
       </c>
       <c r="E6">
-        <v>0.1690476856441698</v>
+        <v>0.1555516488102739</v>
       </c>
       <c r="F6">
-        <v>3.050778551949605</v>
+        <v>4.938719284200118</v>
       </c>
       <c r="G6">
-        <v>3.297308380218055</v>
+        <v>5.898882401300057</v>
       </c>
       <c r="H6">
-        <v>2.301976091865527</v>
+        <v>2.943391441408949</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.146845876393435</v>
+        <v>0.1432443080866292</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4040314545845263</v>
+        <v>0.363839766115575</v>
       </c>
       <c r="D7">
-        <v>0.1652422074195385</v>
+        <v>0.2377561918920605</v>
       </c>
       <c r="E7">
-        <v>0.1700304922802758</v>
+        <v>0.1627647620479813</v>
       </c>
       <c r="F7">
-        <v>3.100370522109301</v>
+        <v>5.20786037066847</v>
       </c>
       <c r="G7">
-        <v>3.359307776180344</v>
+        <v>6.226693103959406</v>
       </c>
       <c r="H7">
-        <v>2.32764046474864</v>
+        <v>3.095528612869884</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1478067263899376</v>
+        <v>0.1500768901757539</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4137409840663224</v>
+        <v>0.4373578639132916</v>
       </c>
       <c r="D8">
-        <v>0.1744526551100023</v>
+        <v>0.2947623371459827</v>
       </c>
       <c r="E8">
-        <v>0.1746504803007056</v>
+        <v>0.1966796769582544</v>
       </c>
       <c r="F8">
-        <v>3.325242206422672</v>
+        <v>6.462763192167586</v>
       </c>
       <c r="G8">
-        <v>3.639577500156065</v>
+        <v>7.754635027764266</v>
       </c>
       <c r="H8">
-        <v>2.4451698046758</v>
+        <v>3.806723679525021</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1523005766433556</v>
+        <v>0.1822084474742738</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4351876940660304</v>
+        <v>0.6069358654761743</v>
       </c>
       <c r="D9">
-        <v>0.1937285989380229</v>
+        <v>0.4268073152809109</v>
       </c>
       <c r="E9">
-        <v>0.1847596816637846</v>
+        <v>0.2749988937932315</v>
       </c>
       <c r="F9">
-        <v>3.789042000569367</v>
+        <v>9.31115209167524</v>
       </c>
       <c r="G9">
-        <v>4.21460069015302</v>
+        <v>11.22185098726942</v>
       </c>
       <c r="H9">
-        <v>2.691668150337307</v>
+        <v>5.429509296704055</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1620563131877475</v>
+        <v>0.2564941829561036</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4524796716726485</v>
+        <v>0.7616359708831908</v>
       </c>
       <c r="D10">
-        <v>0.2086880545117822</v>
+        <v>0.5487077200174326</v>
       </c>
       <c r="E10">
-        <v>0.1928588232532178</v>
+        <v>0.3466218459655579</v>
       </c>
       <c r="F10">
-        <v>4.144858485178361</v>
+        <v>11.87144664811271</v>
       </c>
       <c r="G10">
-        <v>4.653973240002358</v>
+        <v>14.3397064516696</v>
       </c>
       <c r="H10">
-        <v>2.883189741785941</v>
+        <v>6.895740712354552</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1698300199496714</v>
+        <v>0.3245876289643519</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4606950994637202</v>
+        <v>0.844802730611292</v>
       </c>
       <c r="D11">
-        <v>0.2156796332964177</v>
+        <v>0.6150337249567599</v>
       </c>
       <c r="E11">
-        <v>0.1966965571949544</v>
+        <v>0.3852145766381057</v>
       </c>
       <c r="F11">
-        <v>4.310259620081922</v>
+        <v>13.23649340274409</v>
       </c>
       <c r="G11">
-        <v>4.857845151148069</v>
+        <v>16.00317022916238</v>
       </c>
       <c r="H11">
-        <v>2.972728262915098</v>
+        <v>7.679944162411175</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1735051820266591</v>
+        <v>0.3613580720546992</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4638575714740796</v>
+        <v>0.8791549061947705</v>
       </c>
       <c r="D12">
-        <v>0.2183550493000723</v>
+        <v>0.6426189304059164</v>
       </c>
       <c r="E12">
-        <v>0.1981724717683875</v>
+        <v>0.4011757666067126</v>
       </c>
       <c r="F12">
-        <v>4.373422961433505</v>
+        <v>13.79830486974413</v>
       </c>
       <c r="G12">
-        <v>4.935647507224985</v>
+        <v>16.68810274850796</v>
       </c>
       <c r="H12">
-        <v>3.006993552294546</v>
+        <v>8.003166897875303</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1749174252540087</v>
+        <v>0.3765839283710193</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4631741670932286</v>
+        <v>0.87160450024993</v>
       </c>
       <c r="D13">
-        <v>0.2177775946002498</v>
+        <v>0.6365458300890339</v>
       </c>
       <c r="E13">
-        <v>0.1978535902517109</v>
+        <v>0.3976665200211045</v>
       </c>
       <c r="F13">
-        <v>4.359795717886527</v>
+        <v>13.67491886356402</v>
       </c>
       <c r="G13">
-        <v>4.918864256875111</v>
+        <v>16.53766027165022</v>
       </c>
       <c r="H13">
-        <v>2.999597750250075</v>
+        <v>7.932157102543556</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1746123506163428</v>
+        <v>0.3732353917225595</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4609542391178536</v>
+        <v>0.8475630008292399</v>
       </c>
       <c r="D14">
-        <v>0.2158991769627789</v>
+        <v>0.6172459832145023</v>
       </c>
       <c r="E14">
-        <v>0.1968175242162218</v>
+        <v>0.3864966352412367</v>
       </c>
       <c r="F14">
-        <v>4.315445372688544</v>
+        <v>13.28167827843828</v>
       </c>
       <c r="G14">
-        <v>4.864233814428871</v>
+        <v>16.05825041821913</v>
       </c>
       <c r="H14">
-        <v>2.975540024997542</v>
+        <v>7.705930056479986</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1736209531485713</v>
+        <v>0.3625806559747247</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4596012096658626</v>
+        <v>0.8332521452384754</v>
       </c>
       <c r="D15">
-        <v>0.2147522513859315</v>
+        <v>0.6057842499001822</v>
       </c>
       <c r="E15">
-        <v>0.1961858711810223</v>
+        <v>0.3798505428312211</v>
       </c>
       <c r="F15">
-        <v>4.288349091472469</v>
+        <v>13.04733209129961</v>
       </c>
       <c r="G15">
-        <v>4.830850061484455</v>
+        <v>15.77259608041516</v>
       </c>
       <c r="H15">
-        <v>2.960851082899808</v>
+        <v>7.57117624815271</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1730163856635585</v>
+        <v>0.3562436383542007</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4519499071875259</v>
+        <v>0.7565302999405503</v>
       </c>
       <c r="D16">
-        <v>0.2082349787647502</v>
+        <v>0.5446556622907508</v>
       </c>
       <c r="E16">
-        <v>0.1926111549514857</v>
+        <v>0.3442547658711135</v>
       </c>
       <c r="F16">
-        <v>4.134122087581659</v>
+        <v>11.78740682546314</v>
       </c>
       <c r="G16">
-        <v>4.6407323570362</v>
+        <v>14.23732497742606</v>
       </c>
       <c r="H16">
-        <v>2.877387772502686</v>
+        <v>6.84751465717693</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1695926820743381</v>
+        <v>0.3223342571278636</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4473463998458271</v>
+        <v>0.7132754290574042</v>
       </c>
       <c r="D17">
-        <v>0.2042853293908991</v>
+        <v>0.5104117547145108</v>
       </c>
       <c r="E17">
-        <v>0.1904578833457293</v>
+        <v>0.3242104549723308</v>
       </c>
       <c r="F17">
-        <v>4.040429598389409</v>
+        <v>11.07424650676205</v>
       </c>
       <c r="G17">
-        <v>4.525143391300105</v>
+        <v>13.36864280453028</v>
       </c>
       <c r="H17">
-        <v>2.826812389448946</v>
+        <v>6.438528201123461</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1675283167677435</v>
+        <v>0.3032612956767196</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4447313769314292</v>
+        <v>0.6895162251193199</v>
       </c>
       <c r="D18">
-        <v>0.2020310800899949</v>
+        <v>0.491663810543514</v>
       </c>
       <c r="E18">
-        <v>0.1892337800419313</v>
+        <v>0.3132073571999072</v>
       </c>
       <c r="F18">
-        <v>3.986871930230905</v>
+        <v>10.68158403891206</v>
       </c>
       <c r="G18">
-        <v>4.459034521134242</v>
+        <v>12.89043859483456</v>
       </c>
       <c r="H18">
-        <v>2.797949289413168</v>
+        <v>6.213544122872349</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1663539836133907</v>
+        <v>0.2927976395907734</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4438515699405912</v>
+        <v>0.6816429315788071</v>
       </c>
       <c r="D19">
-        <v>0.2012708017278442</v>
+        <v>0.4854603152886625</v>
       </c>
       <c r="E19">
-        <v>0.188821775545513</v>
+        <v>0.309562206615567</v>
       </c>
       <c r="F19">
-        <v>3.968794587278524</v>
+        <v>10.55131145096581</v>
       </c>
       <c r="G19">
-        <v>4.43671481326902</v>
+        <v>12.73179853442468</v>
       </c>
       <c r="H19">
-        <v>2.78821529208733</v>
+        <v>6.138934155411334</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1659585963332972</v>
+        <v>0.2893321361712964</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4478330482260162</v>
+        <v>0.717758768717232</v>
       </c>
       <c r="D20">
-        <v>0.2047039592654301</v>
+        <v>0.513954255556996</v>
       </c>
       <c r="E20">
-        <v>0.190685608069515</v>
+        <v>0.3262872688255527</v>
       </c>
       <c r="F20">
-        <v>4.050368838828405</v>
+        <v>11.14826558184592</v>
       </c>
       <c r="G20">
-        <v>4.537409057556147</v>
+        <v>13.45879362854686</v>
       </c>
       <c r="H20">
-        <v>2.832172696867929</v>
+        <v>6.480955198824915</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1677467188201547</v>
+        <v>0.3052367771728939</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4616048787614773</v>
+        <v>0.8545350010943764</v>
       </c>
       <c r="D21">
-        <v>0.2164501492104591</v>
+        <v>0.6228370750641261</v>
       </c>
       <c r="E21">
-        <v>0.1971212224547401</v>
+        <v>0.3897352616691023</v>
       </c>
       <c r="F21">
-        <v>4.32845760456712</v>
+        <v>13.39577492780086</v>
       </c>
       <c r="G21">
-        <v>4.880263595686813</v>
+        <v>16.19733911071626</v>
       </c>
       <c r="H21">
-        <v>2.98259652285725</v>
+        <v>7.77155501252912</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1739115885415998</v>
+        <v>0.3656693584702992</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4709061736978128</v>
+        <v>0.9618153124815763</v>
       </c>
       <c r="D22">
-        <v>0.2242898467257533</v>
+        <v>0.7094980214576196</v>
       </c>
       <c r="E22">
-        <v>0.2014595680059585</v>
+        <v>0.4396357552485242</v>
       </c>
       <c r="F22">
-        <v>4.513301266596727</v>
+        <v>15.14569387987154</v>
       </c>
       <c r="G22">
-        <v>5.107851384150877</v>
+        <v>18.33160392194412</v>
       </c>
       <c r="H22">
-        <v>3.083005467025487</v>
+        <v>8.779438096995193</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1780606847378436</v>
+        <v>0.4133197879084491</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4659139666193539</v>
+        <v>0.9023303756663381</v>
       </c>
       <c r="D23">
-        <v>0.2200903934246128</v>
+        <v>0.6612962510716329</v>
       </c>
       <c r="E23">
-        <v>0.1991318052415565</v>
+        <v>0.411951025669012</v>
       </c>
       <c r="F23">
-        <v>4.414356361456669</v>
+        <v>14.17669667577371</v>
       </c>
       <c r="G23">
-        <v>4.986053475071969</v>
+        <v>17.14952951980996</v>
       </c>
       <c r="H23">
-        <v>3.029219319744527</v>
+        <v>8.221015371799126</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1758350602495398</v>
+        <v>0.3868691865411051</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4476129361772792</v>
+        <v>0.7157284621256679</v>
       </c>
       <c r="D24">
-        <v>0.2045146455190263</v>
+        <v>0.5123498219416547</v>
       </c>
       <c r="E24">
-        <v>0.1905826106539266</v>
+        <v>0.3253467500139919</v>
       </c>
       <c r="F24">
-        <v>4.045874352325768</v>
+        <v>11.11474855398183</v>
       </c>
       <c r="G24">
-        <v>4.531862677884931</v>
+        <v>13.41797161486255</v>
       </c>
       <c r="H24">
-        <v>2.829748638198907</v>
+        <v>6.461742938861278</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1676479403671749</v>
+        <v>0.3043421289863772</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4291212773185293</v>
+        <v>0.5571815134989322</v>
       </c>
       <c r="D25">
-        <v>0.18837815320272</v>
+        <v>0.3879325422303737</v>
       </c>
       <c r="E25">
-        <v>0.1819092697119373</v>
+        <v>0.2520024235128773</v>
       </c>
       <c r="F25">
-        <v>3.661011727456582</v>
+        <v>8.480752006334313</v>
       </c>
       <c r="G25">
-        <v>4.056177817182743</v>
+        <v>10.2110006428311</v>
       </c>
       <c r="H25">
-        <v>2.623202387293077</v>
+        <v>4.955388822889574</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1593129888774882</v>
+        <v>0.2346659878248545</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4586317146612942</v>
+        <v>0.2251025188823945</v>
       </c>
       <c r="D2">
-        <v>0.3112698095546591</v>
+        <v>0.03901638263646134</v>
       </c>
       <c r="E2">
-        <v>0.2064967237953184</v>
+        <v>0.1639454750063649</v>
       </c>
       <c r="F2">
-        <v>6.823216452811693</v>
+        <v>1.023702449032555</v>
       </c>
       <c r="G2">
-        <v>8.193417089642764</v>
+        <v>0.9685882866465647</v>
       </c>
       <c r="H2">
-        <v>4.011489358630115</v>
+        <v>6.531981308288692E-06</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005849122357024505</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6337343075997808</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9660087007399483</v>
       </c>
       <c r="L2">
-        <v>0.1915123161193009</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.963321471309428</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2208235577643762</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8225865262191121</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3985609468852829</v>
+        <v>0.1998708437260035</v>
       </c>
       <c r="D3">
-        <v>0.2646769208505049</v>
+        <v>0.03746410520380294</v>
       </c>
       <c r="E3">
-        <v>0.1787805119231081</v>
+        <v>0.1451293066400794</v>
       </c>
       <c r="F3">
-        <v>5.80247834367421</v>
+        <v>0.9412772842169801</v>
       </c>
       <c r="G3">
-        <v>6.950772208691092</v>
+        <v>0.8906131721890773</v>
       </c>
       <c r="H3">
-        <v>3.43216721739509</v>
+        <v>0.0003745726658730408</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004677094406160265</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6015919372387231</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8931574976357624</v>
       </c>
       <c r="L3">
-        <v>0.1652488568003605</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.448995668895122</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1950572804009099</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8402955893796644</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3640249035108809</v>
+        <v>0.1841944343355806</v>
       </c>
       <c r="D4">
-        <v>0.2378997651216537</v>
+        <v>0.0364912991295725</v>
       </c>
       <c r="E4">
-        <v>0.1628501555819675</v>
+        <v>0.133538582608093</v>
       </c>
       <c r="F4">
-        <v>5.211041376224102</v>
+        <v>0.8913553474231719</v>
       </c>
       <c r="G4">
-        <v>6.230567228428754</v>
+        <v>0.843322556190941</v>
       </c>
       <c r="H4">
-        <v>3.097327659573864</v>
+        <v>0.0009018998194392225</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0007965406573013922</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5822304469195814</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8486335740110036</v>
       </c>
       <c r="L4">
-        <v>0.1501577798987768</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.132754965614538</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1792853569554751</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.851907818653352</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3504320524591833</v>
+        <v>0.1772428943259854</v>
       </c>
       <c r="D5">
-        <v>0.2273568687919294</v>
+        <v>0.03611861523365789</v>
       </c>
       <c r="E5">
-        <v>0.1565805807202487</v>
+        <v>0.1286794542604497</v>
       </c>
       <c r="F5">
-        <v>4.977166558651476</v>
+        <v>0.8702547763394506</v>
       </c>
       <c r="G5">
-        <v>5.945713997569896</v>
+        <v>0.823148161328362</v>
       </c>
       <c r="H5">
-        <v>2.965114850085627</v>
+        <v>0.00119118020870479</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001096650541115629</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5739066911420139</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8294102426051495</v>
       </c>
       <c r="L5">
-        <v>0.1442189496460813</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.0020463137908</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1729286179688216</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8570785719479019</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.34820125192266</v>
+        <v>0.1754570275760443</v>
       </c>
       <c r="D6">
-        <v>0.225626221951245</v>
+        <v>0.03609177917764228</v>
       </c>
       <c r="E6">
-        <v>0.1555516488102739</v>
+        <v>0.1277196353621477</v>
       </c>
       <c r="F6">
-        <v>4.938719284200118</v>
+        <v>0.8656437862651387</v>
       </c>
       <c r="G6">
-        <v>5.898882401300057</v>
+        <v>0.8185416656857285</v>
       </c>
       <c r="H6">
-        <v>2.943391441408949</v>
+        <v>0.001246729602790708</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001246064333282781</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.57189353543788</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8248499475404714</v>
       </c>
       <c r="L6">
-        <v>0.1432443080866292</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.978254397455771</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1719489776563279</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8582672137560294</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.363839766115575</v>
+        <v>0.1823760010855864</v>
       </c>
       <c r="D7">
-        <v>0.2377561918920605</v>
+        <v>0.03658347784376303</v>
       </c>
       <c r="E7">
-        <v>0.1627647620479813</v>
+        <v>0.1330558572811675</v>
       </c>
       <c r="F7">
-        <v>5.20786037066847</v>
+        <v>0.8880151100643445</v>
       </c>
       <c r="G7">
-        <v>6.226693103959406</v>
+        <v>0.8395899888369485</v>
       </c>
       <c r="H7">
-        <v>3.095528612869884</v>
+        <v>0.0009129509524989921</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001038542903265771</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5803785260801249</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8446221325793886</v>
       </c>
       <c r="L7">
-        <v>0.1500768901757539</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.125290470691709</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1794062563252297</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.852864199794908</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4373578639132916</v>
+        <v>0.2141295104537306</v>
       </c>
       <c r="D8">
-        <v>0.2947623371459827</v>
+        <v>0.03861719280292419</v>
       </c>
       <c r="E8">
-        <v>0.1966796769582544</v>
+        <v>0.1569058136035295</v>
       </c>
       <c r="F8">
-        <v>6.462763192167586</v>
+        <v>0.9910594927406464</v>
       </c>
       <c r="G8">
-        <v>7.754635027764266</v>
+        <v>0.9369610255902217</v>
       </c>
       <c r="H8">
-        <v>3.806723679525021</v>
+        <v>7.107015416263351E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007304887981867125</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6202587953355163</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9358411968789824</v>
       </c>
       <c r="L8">
-        <v>0.1822084474742738</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.778401721172258</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2122033140675015</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8297759171908154</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6069358654761743</v>
+        <v>0.2781853021264311</v>
       </c>
       <c r="D9">
-        <v>0.4268073152809109</v>
+        <v>0.04227092261224286</v>
       </c>
       <c r="E9">
-        <v>0.2749988937932315</v>
+        <v>0.2042303881282521</v>
       </c>
       <c r="F9">
-        <v>9.31115209167524</v>
+        <v>1.204931286703996</v>
       </c>
       <c r="G9">
-        <v>11.22185098726942</v>
+        <v>1.13962253144976</v>
       </c>
       <c r="H9">
-        <v>5.429509296704055</v>
+        <v>0.001004380005505956</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003234809505554104</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7049346205929652</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.12365644639145</v>
       </c>
       <c r="L9">
-        <v>0.2564941829561036</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.067479251079135</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2766905174912182</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7889757337419283</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7616359708831908</v>
+        <v>0.3174005020924966</v>
       </c>
       <c r="D10">
-        <v>0.5487077200174326</v>
+        <v>0.04546347572052412</v>
       </c>
       <c r="E10">
-        <v>0.3466218459655579</v>
+        <v>0.2300657128785204</v>
       </c>
       <c r="F10">
-        <v>11.87144664811271</v>
+        <v>1.350209855674549</v>
       </c>
       <c r="G10">
-        <v>14.3397064516696</v>
+        <v>1.2739158586337</v>
       </c>
       <c r="H10">
-        <v>6.895740712354552</v>
+        <v>0.00354837146660536</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007526870545508935</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7602360088206979</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.244403383506992</v>
       </c>
       <c r="L10">
-        <v>0.3245876289643519</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.982852115370065</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3094517271634203</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7691129227348839</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.844802730611292</v>
+        <v>0.2799047433863677</v>
       </c>
       <c r="D11">
-        <v>0.6150337249567599</v>
+        <v>0.0526063922148694</v>
       </c>
       <c r="E11">
-        <v>0.3852145766381057</v>
+        <v>0.1718919412231976</v>
       </c>
       <c r="F11">
-        <v>13.23649340274409</v>
+        <v>1.280206256658232</v>
       </c>
       <c r="G11">
-        <v>16.00317022916238</v>
+        <v>1.181729854887607</v>
       </c>
       <c r="H11">
-        <v>7.679944162411175</v>
+        <v>0.02210780443855498</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.009123258181366722</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7093002108692872</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.14518384183026</v>
       </c>
       <c r="L11">
-        <v>0.3613580720546992</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.129248175641465</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2067218813275176</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.815360671270895</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8791549061947705</v>
+        <v>0.2455962128297529</v>
       </c>
       <c r="D12">
-        <v>0.6426189304059164</v>
+        <v>0.05875255936565793</v>
       </c>
       <c r="E12">
-        <v>0.4011757666067126</v>
+        <v>0.1267594881445149</v>
       </c>
       <c r="F12">
-        <v>13.79830486974413</v>
+        <v>1.196067264188358</v>
       </c>
       <c r="G12">
-        <v>16.68810274850796</v>
+        <v>1.083299714982189</v>
       </c>
       <c r="H12">
-        <v>8.003166897875303</v>
+        <v>0.06043682152076713</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009107269637775417</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6582509668920409</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.044892567701453</v>
       </c>
       <c r="L12">
-        <v>0.3765839283710193</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.065057860895479</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1328285453554869</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8637353419317151</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.87160450024993</v>
+        <v>0.2092557311850243</v>
       </c>
       <c r="D13">
-        <v>0.6365458300890339</v>
+        <v>0.06455867106560476</v>
       </c>
       <c r="E13">
-        <v>0.3976665200211045</v>
+        <v>0.08862586177955478</v>
       </c>
       <c r="F13">
-        <v>13.67491886356402</v>
+        <v>1.091507914273421</v>
       </c>
       <c r="G13">
-        <v>16.53766027165022</v>
+        <v>0.9691753995563488</v>
       </c>
       <c r="H13">
-        <v>7.932157102543556</v>
+        <v>0.1155486492015854</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.008129888145831821</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6015012514765061</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9324834121874304</v>
       </c>
       <c r="L13">
-        <v>0.3732353917225595</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.826537218187525</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07746439335104327</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.9167219494608787</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.8475630008292399</v>
+        <v>0.1831872209478291</v>
       </c>
       <c r="D14">
-        <v>0.6172459832145023</v>
+        <v>0.06858370742182984</v>
       </c>
       <c r="E14">
-        <v>0.3864966352412367</v>
+        <v>0.0664572355899562</v>
       </c>
       <c r="F14">
-        <v>13.28167827843828</v>
+        <v>1.009184232691567</v>
       </c>
       <c r="G14">
-        <v>16.05825041821913</v>
+        <v>0.8824775561959939</v>
       </c>
       <c r="H14">
-        <v>7.705930056479986</v>
+        <v>0.1643706625721961</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00715592024921996</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5592823531436295</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8485929275308521</v>
       </c>
       <c r="L14">
-        <v>0.3625806559747247</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.580283848165777</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05009506474630854</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.956590529377749</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8332521452384754</v>
+        <v>0.1756738279622283</v>
       </c>
       <c r="D15">
-        <v>0.6057842499001822</v>
+        <v>0.06942757085469253</v>
       </c>
       <c r="E15">
-        <v>0.3798505428312211</v>
+        <v>0.06141230144910992</v>
       </c>
       <c r="F15">
-        <v>13.04733209129961</v>
+        <v>0.983819726140382</v>
       </c>
       <c r="G15">
-        <v>15.77259608041516</v>
+        <v>0.856800035734409</v>
       </c>
       <c r="H15">
-        <v>7.57117624815271</v>
+        <v>0.1766657028901619</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.006834510108243208</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5471958743294749</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8242061648004295</v>
       </c>
       <c r="L15">
-        <v>0.3562436383542007</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.481850829744076</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04484569594828614</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.9668411034065514</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7565302999405503</v>
+        <v>0.1666287103415698</v>
       </c>
       <c r="D16">
-        <v>0.5446556622907508</v>
+        <v>0.06671841084057917</v>
       </c>
       <c r="E16">
-        <v>0.3442547658711135</v>
+        <v>0.05925810781526586</v>
       </c>
       <c r="F16">
-        <v>11.78740682546314</v>
+        <v>0.942482636541655</v>
       </c>
       <c r="G16">
-        <v>14.23732497742606</v>
+        <v>0.8223862317053374</v>
       </c>
       <c r="H16">
-        <v>6.84751465717693</v>
+        <v>0.1630124892912619</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005265903865473653</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5347749264576152</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.795596067325917</v>
       </c>
       <c r="L16">
-        <v>0.3223342571278636</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.139053968526753</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04407698673641391</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.9612704450767637</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7132754290574042</v>
+        <v>0.1729181419591157</v>
       </c>
       <c r="D17">
-        <v>0.5104117547145108</v>
+        <v>0.06247134029413104</v>
       </c>
       <c r="E17">
-        <v>0.3242104549723308</v>
+        <v>0.06830850745784289</v>
       </c>
       <c r="F17">
-        <v>11.07424650676205</v>
+        <v>0.954043373834466</v>
       </c>
       <c r="G17">
-        <v>13.36864280453028</v>
+        <v>0.8413342551332761</v>
       </c>
       <c r="H17">
-        <v>6.438528201123461</v>
+        <v>0.1248198150313016</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004618014071381182</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5473921403900732</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8173213134251469</v>
       </c>
       <c r="L17">
-        <v>0.3032612956767196</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.006217932259688</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0559171488899679</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.9361192076679288</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6895162251193199</v>
+        <v>0.1957336686318314</v>
       </c>
       <c r="D18">
-        <v>0.491663810543514</v>
+        <v>0.05669598529152609</v>
       </c>
       <c r="E18">
-        <v>0.3132073571999072</v>
+        <v>0.09264796241956219</v>
       </c>
       <c r="F18">
-        <v>10.68158403891206</v>
+        <v>1.01539545538418</v>
       </c>
       <c r="G18">
-        <v>12.89043859483456</v>
+        <v>0.9123166619072549</v>
       </c>
       <c r="H18">
-        <v>6.213544122872349</v>
+        <v>0.07196098218567926</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004305491512999637</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5848606784638122</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8893913695095108</v>
       </c>
       <c r="L18">
-        <v>0.2927976395907734</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.042384807598694</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08985445415312654</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8928219799074668</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.6816429315788071</v>
+        <v>0.2303171035269145</v>
       </c>
       <c r="D19">
-        <v>0.4854603152886625</v>
+        <v>0.05102487577128656</v>
       </c>
       <c r="E19">
-        <v>0.309562206615567</v>
+        <v>0.1339222270889557</v>
       </c>
       <c r="F19">
-        <v>10.55131145096581</v>
+        <v>1.109219319048165</v>
       </c>
       <c r="G19">
-        <v>12.73179853442468</v>
+        <v>1.017561310048663</v>
       </c>
       <c r="H19">
-        <v>6.138934155411334</v>
+        <v>0.02708231093411229</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004781401517828243</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6381800721722897</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.994364566697719</v>
       </c>
       <c r="L19">
-        <v>0.2893321361712964</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.201309794332076</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1544406766752644</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8448534754163575</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.717758768717232</v>
+        <v>0.3013863858187449</v>
       </c>
       <c r="D20">
-        <v>0.513954255556996</v>
+        <v>0.0449891684452588</v>
       </c>
       <c r="E20">
-        <v>0.3262872688255527</v>
+        <v>0.221588003795965</v>
       </c>
       <c r="F20">
-        <v>11.14826558184592</v>
+        <v>1.301342602561348</v>
       </c>
       <c r="G20">
-        <v>13.45879362854686</v>
+        <v>1.226614755609376</v>
       </c>
       <c r="H20">
-        <v>6.480955198824915</v>
+        <v>0.002693995280503181</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006853137598532122</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7396917369135281</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.199929808340414</v>
       </c>
       <c r="L20">
-        <v>0.3052367771728939</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.722580396678609</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3008229541354268</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7775066145252012</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8545350010943764</v>
+        <v>0.342184763662928</v>
       </c>
       <c r="D21">
-        <v>0.6228370750641261</v>
+        <v>0.04649445445560119</v>
       </c>
       <c r="E21">
-        <v>0.3897352616691023</v>
+        <v>0.2552238240438598</v>
       </c>
       <c r="F21">
-        <v>13.39577492780086</v>
+        <v>1.440584895024045</v>
       </c>
       <c r="G21">
-        <v>16.19733911071626</v>
+        <v>1.360643564140048</v>
       </c>
       <c r="H21">
-        <v>7.77155501252912</v>
+        <v>0.005320046599848527</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01109437647431744</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7976071579873008</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.322882326504441</v>
       </c>
       <c r="L21">
-        <v>0.3656693584702992</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.47562342981854</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3497265567100101</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7548742849152248</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.9618153124815763</v>
+        <v>0.3679409557943245</v>
       </c>
       <c r="D22">
-        <v>0.7094980214576196</v>
+        <v>0.04760288114480105</v>
       </c>
       <c r="E22">
-        <v>0.4396357552485242</v>
+        <v>0.2733961243677712</v>
       </c>
       <c r="F22">
-        <v>15.14569387987154</v>
+        <v>1.52921356076142</v>
       </c>
       <c r="G22">
-        <v>18.33160392194412</v>
+        <v>1.445281453645862</v>
       </c>
       <c r="H22">
-        <v>8.779438096995193</v>
+        <v>0.007486473551711337</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01414919159245809</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8340396675438626</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.400059661494623</v>
       </c>
       <c r="L22">
-        <v>0.4133197879084491</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.961516689165023</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3738052838049555</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7423289145927683</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9023303756663381</v>
+        <v>0.3563114960755627</v>
       </c>
       <c r="D23">
-        <v>0.6612962510716329</v>
+        <v>0.04688534231815566</v>
       </c>
       <c r="E23">
-        <v>0.411951025669012</v>
+        <v>0.2642075433504445</v>
       </c>
       <c r="F23">
-        <v>14.17669667577371</v>
+        <v>1.485484326899723</v>
       </c>
       <c r="G23">
-        <v>17.14952951980996</v>
+        <v>1.404180358670146</v>
       </c>
       <c r="H23">
-        <v>8.221015371799126</v>
+        <v>0.006307827858984649</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0122309432671619</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.816617356359103</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.363348459342035</v>
       </c>
       <c r="L23">
-        <v>0.3868691865411051</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.709207936482244</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3606843855825304</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7476653125501258</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7157284621256679</v>
+        <v>0.3088764607870189</v>
       </c>
       <c r="D24">
-        <v>0.5123498219416547</v>
+        <v>0.04433379846159369</v>
       </c>
       <c r="E24">
-        <v>0.3253467500139919</v>
+        <v>0.2287138393778818</v>
       </c>
       <c r="F24">
-        <v>11.11474855398183</v>
+        <v>1.316864053821192</v>
       </c>
       <c r="G24">
-        <v>13.41797161486255</v>
+        <v>1.244552244554313</v>
       </c>
       <c r="H24">
-        <v>6.461742938861278</v>
+        <v>0.002685777964619218</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006487764786131223</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7487506506532782</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.218592635912074</v>
       </c>
       <c r="L24">
-        <v>0.3043421289863772</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.744555059464858</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3117535417548538</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7717465138411299</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5571815134989322</v>
+        <v>0.2577943903219477</v>
       </c>
       <c r="D25">
-        <v>0.3879325422303737</v>
+        <v>0.0414857790229135</v>
       </c>
       <c r="E25">
-        <v>0.2520024235128773</v>
+        <v>0.1906614855435009</v>
       </c>
       <c r="F25">
-        <v>8.480752006334313</v>
+        <v>1.140671363236322</v>
       </c>
       <c r="G25">
-        <v>10.2110006428311</v>
+        <v>1.077742995759209</v>
       </c>
       <c r="H25">
-        <v>4.955388822889574</v>
+        <v>0.0004377399829351702</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00251550348693641</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6784427648892404</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.065657081683796</v>
       </c>
       <c r="L25">
-        <v>0.2346659878248545</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.708102605759848</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2595442932126986</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8011135811983721</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2251025188823945</v>
+        <v>0.1367104877711398</v>
       </c>
       <c r="D2">
-        <v>0.03901638263646134</v>
+        <v>0.04363049925501628</v>
       </c>
       <c r="E2">
-        <v>0.1639454750063649</v>
+        <v>0.1434323104117006</v>
       </c>
       <c r="F2">
-        <v>1.023702449032555</v>
+        <v>0.8717414400952492</v>
       </c>
       <c r="G2">
-        <v>0.9685882866465647</v>
+        <v>0.7767723168434486</v>
       </c>
       <c r="H2">
-        <v>6.531981308288692E-06</v>
+        <v>1.47576099340796E-07</v>
       </c>
       <c r="I2">
-        <v>0.0005849122357024505</v>
+        <v>0.0007901544285404682</v>
       </c>
       <c r="J2">
-        <v>0.6337343075997808</v>
+        <v>0.5822508794470167</v>
       </c>
       <c r="K2">
-        <v>0.9660087007399483</v>
+        <v>0.7758290622640587</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3508536065171555</v>
       </c>
       <c r="M2">
-        <v>3.963321471309428</v>
+        <v>0.2408494237061021</v>
       </c>
       <c r="N2">
-        <v>0.2208235577643762</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.690146609899671</v>
       </c>
       <c r="P2">
-        <v>0.8225865262191121</v>
+        <v>0.236438725606277</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8664088346874337</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1998708437260035</v>
+        <v>0.1227422698334664</v>
       </c>
       <c r="D3">
-        <v>0.03746410520380294</v>
+        <v>0.04079372370439671</v>
       </c>
       <c r="E3">
-        <v>0.1451293066400794</v>
+        <v>0.127888291406979</v>
       </c>
       <c r="F3">
-        <v>0.9412772842169801</v>
+        <v>0.8093973393559679</v>
       </c>
       <c r="G3">
-        <v>0.8906131721890773</v>
+        <v>0.7228759223674928</v>
       </c>
       <c r="H3">
-        <v>0.0003745726658730408</v>
+        <v>0.0002322612177387828</v>
       </c>
       <c r="I3">
-        <v>0.0004677094406160265</v>
+        <v>0.0005044159518439173</v>
       </c>
       <c r="J3">
-        <v>0.6015919372387231</v>
+        <v>0.5568323479229065</v>
       </c>
       <c r="K3">
-        <v>0.8931574976357624</v>
+        <v>0.7268090044766211</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3418881697857188</v>
       </c>
       <c r="M3">
-        <v>3.448995668895122</v>
+        <v>0.213757628948386</v>
       </c>
       <c r="N3">
-        <v>0.1950572804009099</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.22077748157551</v>
       </c>
       <c r="P3">
-        <v>0.8402955893796644</v>
+        <v>0.2095156533825104</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.87195748866705</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1841944343355806</v>
+        <v>0.1139902862059614</v>
       </c>
       <c r="D4">
-        <v>0.0364912991295725</v>
+        <v>0.03904808039090568</v>
       </c>
       <c r="E4">
-        <v>0.133538582608093</v>
+        <v>0.1182760840847692</v>
       </c>
       <c r="F4">
-        <v>0.8913553474231719</v>
+        <v>0.7715143509982667</v>
       </c>
       <c r="G4">
-        <v>0.843322556190941</v>
+        <v>0.6902554015522639</v>
       </c>
       <c r="H4">
-        <v>0.0009018998194392225</v>
+        <v>0.0006099502849528093</v>
       </c>
       <c r="I4">
-        <v>0.0007965406573013922</v>
+        <v>0.0006247134266179621</v>
       </c>
       <c r="J4">
-        <v>0.5822304469195814</v>
+        <v>0.5412281303566431</v>
       </c>
       <c r="K4">
-        <v>0.8486335740110036</v>
+        <v>0.6966385774287005</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3360096747816144</v>
       </c>
       <c r="M4">
-        <v>3.132754965614538</v>
+        <v>0.1979746810016287</v>
       </c>
       <c r="N4">
-        <v>0.1792853569554751</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.931522786746626</v>
       </c>
       <c r="P4">
-        <v>0.851907818653352</v>
+        <v>0.1930313675919919</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8762253813344572</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1772428943259854</v>
+        <v>0.1100074200834484</v>
       </c>
       <c r="D5">
-        <v>0.03611861523365789</v>
+        <v>0.0383736511899393</v>
       </c>
       <c r="E5">
-        <v>0.1286794542604497</v>
+        <v>0.1142302243886064</v>
       </c>
       <c r="F5">
-        <v>0.8702547763394506</v>
+        <v>0.7553641673154203</v>
       </c>
       <c r="G5">
-        <v>0.823148161328362</v>
+        <v>0.676185957220298</v>
       </c>
       <c r="H5">
-        <v>0.00119118020870479</v>
+        <v>0.0008219808408023166</v>
       </c>
       <c r="I5">
-        <v>0.001096650541115629</v>
+        <v>0.0008263461801512051</v>
       </c>
       <c r="J5">
-        <v>0.5739066911420139</v>
+        <v>0.5344009998283212</v>
       </c>
       <c r="K5">
-        <v>0.8294102426051495</v>
+        <v>0.6833736497407301</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3331121786409597</v>
       </c>
       <c r="M5">
-        <v>3.0020463137908</v>
+        <v>0.1914474887944131</v>
       </c>
       <c r="N5">
-        <v>0.1729286179688216</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.811804014407784</v>
       </c>
       <c r="P5">
-        <v>0.8570785719479019</v>
+        <v>0.1863839181216136</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8784931164509331</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1754570275760443</v>
+        <v>0.1088918945576438</v>
       </c>
       <c r="D6">
-        <v>0.03609177917764228</v>
+        <v>0.03830840791209056</v>
       </c>
       <c r="E6">
-        <v>0.1277196353621477</v>
+        <v>0.1134221454824456</v>
       </c>
       <c r="F6">
-        <v>0.8656437862651387</v>
+        <v>0.7517087968557234</v>
       </c>
       <c r="G6">
-        <v>0.8185416656857285</v>
+        <v>0.6727786626444043</v>
       </c>
       <c r="H6">
-        <v>0.001246729602790708</v>
+        <v>0.0008629554603412082</v>
       </c>
       <c r="I6">
-        <v>0.001246064333282781</v>
+        <v>0.000973201631900622</v>
       </c>
       <c r="J6">
-        <v>0.57189353543788</v>
+        <v>0.5326973275505225</v>
       </c>
       <c r="K6">
-        <v>0.8248499475404714</v>
+        <v>0.6800128161329511</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3321284159347897</v>
       </c>
       <c r="M6">
-        <v>2.978254397455771</v>
+        <v>0.1900020732245729</v>
       </c>
       <c r="N6">
-        <v>0.1719489776563279</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.789995616618995</v>
       </c>
       <c r="P6">
-        <v>0.8582672137560294</v>
+        <v>0.1853553909296153</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8792742245166778</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1823760010855864</v>
+        <v>0.1129042343550424</v>
       </c>
       <c r="D7">
-        <v>0.03658347784376303</v>
+        <v>0.03924546667980877</v>
       </c>
       <c r="E7">
-        <v>0.1330558572811675</v>
+        <v>0.1179002295378915</v>
       </c>
       <c r="F7">
-        <v>0.8880151100643445</v>
+        <v>0.7670000791655767</v>
       </c>
       <c r="G7">
-        <v>0.8395899888369485</v>
+        <v>0.690848042936878</v>
       </c>
       <c r="H7">
-        <v>0.0009129509524989921</v>
+        <v>0.0006202262520567103</v>
       </c>
       <c r="I7">
-        <v>0.001038542903265771</v>
+        <v>0.0009066911420694268</v>
       </c>
       <c r="J7">
-        <v>0.5803785260801249</v>
+        <v>0.5328383092083016</v>
       </c>
       <c r="K7">
-        <v>0.8446221325793886</v>
+        <v>0.6920244282328696</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3340957729042628</v>
       </c>
       <c r="M7">
-        <v>3.125290470691709</v>
+        <v>0.1964210095419894</v>
       </c>
       <c r="N7">
-        <v>0.1794062563252297</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.921508045577895</v>
       </c>
       <c r="P7">
-        <v>0.852864199794908</v>
+        <v>0.1930829182454445</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8779973890096286</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2141295104537306</v>
+        <v>0.130968695896172</v>
       </c>
       <c r="D8">
-        <v>0.03861719280292419</v>
+        <v>0.0430960383556318</v>
       </c>
       <c r="E8">
-        <v>0.1569058136035295</v>
+        <v>0.1377572288732232</v>
       </c>
       <c r="F8">
-        <v>0.9910594927406464</v>
+        <v>0.8412269308176263</v>
       </c>
       <c r="G8">
-        <v>0.9369610255902217</v>
+        <v>0.7666706376596721</v>
       </c>
       <c r="H8">
-        <v>7.107015416263351E-05</v>
+        <v>3.263272917441995E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007304887981867125</v>
+        <v>0.0009502774545335768</v>
       </c>
       <c r="J8">
-        <v>0.6202587953355163</v>
+        <v>0.5492497975158983</v>
       </c>
       <c r="K8">
-        <v>0.9358411968789824</v>
+        <v>0.7505374287597348</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3444583064336442</v>
       </c>
       <c r="M8">
-        <v>3.778401721172258</v>
+        <v>0.2283818258977846</v>
       </c>
       <c r="N8">
-        <v>0.2122033140675015</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.510899834048701</v>
       </c>
       <c r="P8">
-        <v>0.8297759171908154</v>
+        <v>0.227206822773482</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8719585196148927</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2781853021264311</v>
+        <v>0.1665727897979821</v>
       </c>
       <c r="D9">
-        <v>0.04227092261224286</v>
+        <v>0.05010088332505802</v>
       </c>
       <c r="E9">
-        <v>0.2042303881282521</v>
+        <v>0.1767051137876869</v>
       </c>
       <c r="F9">
-        <v>1.204931286703996</v>
+        <v>1.00117377742832</v>
       </c>
       <c r="G9">
-        <v>1.13962253144976</v>
+        <v>0.9114497663230452</v>
       </c>
       <c r="H9">
-        <v>0.001004380005505956</v>
+        <v>0.0008799991902661564</v>
       </c>
       <c r="I9">
-        <v>0.003234809505554104</v>
+        <v>0.003149709579887805</v>
       </c>
       <c r="J9">
-        <v>0.7049346205929652</v>
+        <v>0.6084083843837931</v>
       </c>
       <c r="K9">
-        <v>1.12365644639145</v>
+        <v>0.8752626462047246</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3660567991563966</v>
       </c>
       <c r="M9">
-        <v>5.067479251079135</v>
+        <v>0.3015470218114018</v>
       </c>
       <c r="N9">
-        <v>0.2766905174912182</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.680123193071665</v>
       </c>
       <c r="P9">
-        <v>0.7889757337419283</v>
+        <v>0.2944804943531523</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8628027626788324</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3174005020924966</v>
+        <v>0.1889526520557752</v>
       </c>
       <c r="D10">
-        <v>0.04546347572052412</v>
+        <v>0.0565222611675793</v>
       </c>
       <c r="E10">
-        <v>0.2300657128785204</v>
+        <v>0.1974391913270139</v>
       </c>
       <c r="F10">
-        <v>1.350209855674549</v>
+        <v>1.098960831888775</v>
       </c>
       <c r="G10">
-        <v>1.2739158586337</v>
+        <v>1.029062186800957</v>
       </c>
       <c r="H10">
-        <v>0.00354837146660536</v>
+        <v>0.002941071916804372</v>
       </c>
       <c r="I10">
-        <v>0.007526870545508935</v>
+        <v>0.00655649092421573</v>
       </c>
       <c r="J10">
-        <v>0.7602360088206979</v>
+        <v>0.6071132071206335</v>
       </c>
       <c r="K10">
-        <v>1.244403383506992</v>
+        <v>0.9453444755082216</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3723875279016156</v>
       </c>
       <c r="M10">
-        <v>5.982852115370065</v>
+        <v>0.3511976220261204</v>
       </c>
       <c r="N10">
-        <v>0.3094517271634203</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5.48929551916217</v>
       </c>
       <c r="P10">
-        <v>0.7691129227348839</v>
+        <v>0.3282087403313199</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8722649685483645</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2799047433863677</v>
+        <v>0.1684456807964239</v>
       </c>
       <c r="D11">
-        <v>0.0526063922148694</v>
+        <v>0.06751126949655628</v>
       </c>
       <c r="E11">
-        <v>0.1718919412231976</v>
+        <v>0.145420606313909</v>
       </c>
       <c r="F11">
-        <v>1.280206256658232</v>
+        <v>1.021405070526328</v>
       </c>
       <c r="G11">
-        <v>1.181729854887607</v>
+        <v>1.000265918943569</v>
       </c>
       <c r="H11">
-        <v>0.02210780443855498</v>
+        <v>0.02140438498492259</v>
       </c>
       <c r="I11">
-        <v>0.009123258181366722</v>
+        <v>0.007947409232229141</v>
       </c>
       <c r="J11">
-        <v>0.7093002108692872</v>
+        <v>0.494483515463557</v>
       </c>
       <c r="K11">
-        <v>1.14518384183026</v>
+        <v>0.8516543532681595</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.33077387973605</v>
       </c>
       <c r="M11">
-        <v>6.129248175641465</v>
+        <v>0.3239478360542307</v>
       </c>
       <c r="N11">
-        <v>0.2067218813275176</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>5.597954432833149</v>
       </c>
       <c r="P11">
-        <v>0.815360671270895</v>
+        <v>0.2201561812691892</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9479698393373894</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2455962128297529</v>
+        <v>0.1494630039027101</v>
       </c>
       <c r="D12">
-        <v>0.05875255936565793</v>
+        <v>0.07583196761803634</v>
       </c>
       <c r="E12">
-        <v>0.1267594881445149</v>
+        <v>0.1058398301370858</v>
       </c>
       <c r="F12">
-        <v>1.196067264188358</v>
+        <v>0.9465937339065675</v>
       </c>
       <c r="G12">
-        <v>1.083299714982189</v>
+        <v>0.9416235053102184</v>
       </c>
       <c r="H12">
-        <v>0.06043682152076713</v>
+        <v>0.05977164648690803</v>
       </c>
       <c r="I12">
-        <v>0.009107269637775417</v>
+        <v>0.007929534338703803</v>
       </c>
       <c r="J12">
-        <v>0.6582509668920409</v>
+        <v>0.4303264835317009</v>
       </c>
       <c r="K12">
-        <v>1.044892567701453</v>
+        <v>0.7703817153018164</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2994503497302574</v>
       </c>
       <c r="M12">
-        <v>6.065057860895479</v>
+        <v>0.2946906719373317</v>
       </c>
       <c r="N12">
-        <v>0.1328285453554869</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.53623799104156</v>
       </c>
       <c r="P12">
-        <v>0.8637353419317151</v>
+        <v>0.1421404815012792</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.01162883660686</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2092557311850243</v>
+        <v>0.1285206997078845</v>
       </c>
       <c r="D13">
-        <v>0.06455867106560476</v>
+        <v>0.0821519879923116</v>
       </c>
       <c r="E13">
-        <v>0.08862586177955478</v>
+        <v>0.07310380227957936</v>
       </c>
       <c r="F13">
-        <v>1.091507914273421</v>
+        <v>0.8683475952339705</v>
       </c>
       <c r="G13">
-        <v>0.9691753995563488</v>
+        <v>0.8440136010548542</v>
       </c>
       <c r="H13">
-        <v>0.1155486492015854</v>
+        <v>0.1150273090383251</v>
       </c>
       <c r="I13">
-        <v>0.008129888145831821</v>
+        <v>0.007208467636332649</v>
       </c>
       <c r="J13">
-        <v>0.6015012514765061</v>
+        <v>0.4021065182295018</v>
       </c>
       <c r="K13">
-        <v>0.9324834121874304</v>
+        <v>0.6910716824154335</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2724047282971611</v>
       </c>
       <c r="M13">
-        <v>5.826537218187525</v>
+        <v>0.2616921121447575</v>
       </c>
       <c r="N13">
-        <v>0.07746439335104327</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5.340111701145531</v>
       </c>
       <c r="P13">
-        <v>0.9167219494608787</v>
+        <v>0.08331018956742753</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.065901671876929</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1831872209478291</v>
+        <v>0.1133030323057014</v>
       </c>
       <c r="D14">
-        <v>0.06858370742182984</v>
+        <v>0.0856843484741745</v>
       </c>
       <c r="E14">
-        <v>0.0664572355899562</v>
+        <v>0.05460019018642193</v>
       </c>
       <c r="F14">
-        <v>1.009184232691567</v>
+        <v>0.8111962693351984</v>
       </c>
       <c r="G14">
-        <v>0.8824775561959939</v>
+        <v>0.7601566587314892</v>
       </c>
       <c r="H14">
-        <v>0.1643706625721961</v>
+        <v>0.1639787829535493</v>
       </c>
       <c r="I14">
-        <v>0.00715592024921996</v>
+        <v>0.006517578805378399</v>
       </c>
       <c r="J14">
-        <v>0.5592823531436295</v>
+        <v>0.3953358693887452</v>
       </c>
       <c r="K14">
-        <v>0.8485929275308521</v>
+        <v>0.635716428166333</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2548573184741514</v>
       </c>
       <c r="M14">
-        <v>5.580283848165777</v>
+        <v>0.2369254352804546</v>
       </c>
       <c r="N14">
-        <v>0.05009506474630854</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5.140563349544891</v>
       </c>
       <c r="P14">
-        <v>0.956590529377749</v>
+        <v>0.05378429793210771</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.099704425360926</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1756738279622283</v>
+        <v>0.1087784331778323</v>
       </c>
       <c r="D15">
-        <v>0.06942757085469253</v>
+        <v>0.08606311095788044</v>
       </c>
       <c r="E15">
-        <v>0.06141230144910992</v>
+        <v>0.05049519884737919</v>
       </c>
       <c r="F15">
-        <v>0.983819726140382</v>
+        <v>0.7951070586292417</v>
       </c>
       <c r="G15">
-        <v>0.856800035734409</v>
+        <v>0.7319978689478859</v>
       </c>
       <c r="H15">
-        <v>0.1766657028901619</v>
+        <v>0.1763247339881815</v>
       </c>
       <c r="I15">
-        <v>0.006834510108243208</v>
+        <v>0.006332375937918577</v>
       </c>
       <c r="J15">
-        <v>0.5471958743294749</v>
+        <v>0.3987306471383505</v>
       </c>
       <c r="K15">
-        <v>0.8242061648004295</v>
+        <v>0.6209682342958871</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2507277989174952</v>
       </c>
       <c r="M15">
-        <v>5.481850829744076</v>
+        <v>0.2296021059868991</v>
       </c>
       <c r="N15">
-        <v>0.04484569594828614</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5.06114940788467</v>
       </c>
       <c r="P15">
-        <v>0.9668411034065514</v>
+        <v>0.04808240698761779</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.105619949574091</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1666287103415698</v>
+        <v>0.10217719216012</v>
       </c>
       <c r="D16">
-        <v>0.06671841084057917</v>
+        <v>0.08044784500312119</v>
       </c>
       <c r="E16">
-        <v>0.05925810781526586</v>
+        <v>0.04892033950019048</v>
       </c>
       <c r="F16">
-        <v>0.942482636541655</v>
+        <v>0.7803907885286492</v>
       </c>
       <c r="G16">
-        <v>0.8223862317053374</v>
+        <v>0.6718288194199715</v>
       </c>
       <c r="H16">
-        <v>0.1630124892912619</v>
+        <v>0.1628517758091732</v>
       </c>
       <c r="I16">
-        <v>0.005265903865473653</v>
+        <v>0.005183850076971197</v>
       </c>
       <c r="J16">
-        <v>0.5347749264576152</v>
+        <v>0.4459684728595619</v>
       </c>
       <c r="K16">
-        <v>0.795596067325917</v>
+        <v>0.6150364762233664</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2544782916111146</v>
       </c>
       <c r="M16">
-        <v>5.139053968526753</v>
+        <v>0.2196368998382923</v>
       </c>
       <c r="N16">
-        <v>0.04407698673641391</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.783258367683004</v>
       </c>
       <c r="P16">
-        <v>0.9612704450767637</v>
+        <v>0.04787059371444258</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.075934322586875</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1729181419591157</v>
+        <v>0.1048763990684165</v>
       </c>
       <c r="D17">
-        <v>0.06247134029413104</v>
+        <v>0.07461069045943702</v>
       </c>
       <c r="E17">
-        <v>0.06830850745784289</v>
+        <v>0.0565369283419912</v>
       </c>
       <c r="F17">
-        <v>0.954043373834466</v>
+        <v>0.7975684824457261</v>
       </c>
       <c r="G17">
-        <v>0.8413342551332761</v>
+        <v>0.6736107977417163</v>
       </c>
       <c r="H17">
-        <v>0.1248198150313016</v>
+        <v>0.1247214658453544</v>
       </c>
       <c r="I17">
-        <v>0.004618014071381182</v>
+        <v>0.004698700707219672</v>
       </c>
       <c r="J17">
-        <v>0.5473921403900732</v>
+        <v>0.4814809086758345</v>
       </c>
       <c r="K17">
-        <v>0.8173213134251469</v>
+        <v>0.638402351436973</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2665694372301957</v>
       </c>
       <c r="M17">
-        <v>5.006217932259688</v>
+        <v>0.2242281609448753</v>
       </c>
       <c r="N17">
-        <v>0.0559171488899679</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.670750919400632</v>
       </c>
       <c r="P17">
-        <v>0.9361192076679288</v>
+        <v>0.06128823730320931</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.038377142988367</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1957336686318314</v>
+        <v>0.1173722357240123</v>
       </c>
       <c r="D18">
-        <v>0.05669598529152609</v>
+        <v>0.06777561456831194</v>
       </c>
       <c r="E18">
-        <v>0.09264796241956219</v>
+        <v>0.07727638843619999</v>
       </c>
       <c r="F18">
-        <v>1.01539545538418</v>
+        <v>0.8499888044897119</v>
       </c>
       <c r="G18">
-        <v>0.9123166619072549</v>
+        <v>0.7236399016245372</v>
       </c>
       <c r="H18">
-        <v>0.07196098218567926</v>
+        <v>0.07186585451194816</v>
       </c>
       <c r="I18">
-        <v>0.004305491512999637</v>
+        <v>0.004354700073782247</v>
       </c>
       <c r="J18">
-        <v>0.5848606784638122</v>
+        <v>0.5224232243429299</v>
       </c>
       <c r="K18">
-        <v>0.8893913695095108</v>
+        <v>0.6957917023116735</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2896938077837063</v>
       </c>
       <c r="M18">
-        <v>5.042384807598694</v>
+        <v>0.2438938562186479</v>
       </c>
       <c r="N18">
-        <v>0.08985445415312654</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.698621905540904</v>
       </c>
       <c r="P18">
-        <v>0.8928219799074668</v>
+        <v>0.09806849582658828</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9879532116635801</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2303171035269145</v>
+        <v>0.1369466370021399</v>
       </c>
       <c r="D19">
-        <v>0.05102487577128656</v>
+        <v>0.06133113506647447</v>
       </c>
       <c r="E19">
-        <v>0.1339222270889557</v>
+        <v>0.1131660862504837</v>
       </c>
       <c r="F19">
-        <v>1.109219319048165</v>
+        <v>0.9252209176147659</v>
       </c>
       <c r="G19">
-        <v>1.017561310048663</v>
+        <v>0.8034910881905404</v>
       </c>
       <c r="H19">
-        <v>0.02708231093411229</v>
+        <v>0.02693910009590184</v>
       </c>
       <c r="I19">
-        <v>0.004781401517828243</v>
+        <v>0.004765989936081461</v>
       </c>
       <c r="J19">
-        <v>0.6381800721722897</v>
+        <v>0.5676886986686327</v>
       </c>
       <c r="K19">
-        <v>0.994364566697719</v>
+        <v>0.7749950478516183</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3194969830761138</v>
       </c>
       <c r="M19">
-        <v>5.201309794332076</v>
+        <v>0.2736945063367315</v>
       </c>
       <c r="N19">
-        <v>0.1544406766752644</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.830449691241256</v>
       </c>
       <c r="P19">
-        <v>0.8448534754163575</v>
+        <v>0.1665632792965042</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9358999734627531</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3013863858187449</v>
+        <v>0.1785079324637167</v>
       </c>
       <c r="D20">
-        <v>0.0449891684452588</v>
+        <v>0.05500208907788817</v>
       </c>
       <c r="E20">
-        <v>0.221588003795965</v>
+        <v>0.1903446481265831</v>
       </c>
       <c r="F20">
-        <v>1.301342602561348</v>
+        <v>1.070095764947311</v>
       </c>
       <c r="G20">
-        <v>1.226614755609376</v>
+        <v>0.9742266006977474</v>
       </c>
       <c r="H20">
-        <v>0.002693995280503181</v>
+        <v>0.00226484961957274</v>
       </c>
       <c r="I20">
-        <v>0.006853137598532122</v>
+        <v>0.006369952240046217</v>
       </c>
       <c r="J20">
-        <v>0.7396917369135281</v>
+        <v>0.6257417413462179</v>
       </c>
       <c r="K20">
-        <v>1.199929808340414</v>
+        <v>0.9212106037721242</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3687033128467831</v>
       </c>
       <c r="M20">
-        <v>5.722580396678609</v>
+        <v>0.3356733235538272</v>
       </c>
       <c r="N20">
-        <v>0.3008229541354268</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5.270948501483588</v>
       </c>
       <c r="P20">
-        <v>0.7775066145252012</v>
+        <v>0.3195402788885531</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8708629591505286</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.342184763662928</v>
+        <v>0.2059063058378428</v>
       </c>
       <c r="D21">
-        <v>0.04649445445560119</v>
+        <v>0.0605118746499187</v>
       </c>
       <c r="E21">
-        <v>0.2552238240438598</v>
+        <v>0.2194748871093211</v>
       </c>
       <c r="F21">
-        <v>1.440584895024045</v>
+        <v>1.135818734835482</v>
       </c>
       <c r="G21">
-        <v>1.360643564140048</v>
+        <v>1.164493064964034</v>
       </c>
       <c r="H21">
-        <v>0.005320046599848527</v>
+        <v>0.004235646759438105</v>
       </c>
       <c r="I21">
-        <v>0.01109437647431744</v>
+        <v>0.009443542187980825</v>
       </c>
       <c r="J21">
-        <v>0.7976071579873008</v>
+        <v>0.5215627858243863</v>
       </c>
       <c r="K21">
-        <v>1.322882326504441</v>
+        <v>0.9731403137673382</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3727138758880031</v>
       </c>
       <c r="M21">
-        <v>6.47562342981854</v>
+        <v>0.3741106898446489</v>
       </c>
       <c r="N21">
-        <v>0.3497265567100101</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.870129253900075</v>
       </c>
       <c r="P21">
-        <v>0.7548742849152248</v>
+        <v>0.3688820439401042</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8852221621006606</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3679409557943245</v>
+        <v>0.2239728941325438</v>
       </c>
       <c r="D22">
-        <v>0.04760288114480105</v>
+        <v>0.0645019960483495</v>
       </c>
       <c r="E22">
-        <v>0.2733961243677712</v>
+        <v>0.2351798537358718</v>
       </c>
       <c r="F22">
-        <v>1.52921356076142</v>
+        <v>1.174057937966296</v>
       </c>
       <c r="G22">
-        <v>1.445281453645862</v>
+        <v>1.297419184678205</v>
       </c>
       <c r="H22">
-        <v>0.007486473551711337</v>
+        <v>0.005848794075244967</v>
       </c>
       <c r="I22">
-        <v>0.01414919159245809</v>
+        <v>0.0114615936101643</v>
       </c>
       <c r="J22">
-        <v>0.8340396675438626</v>
+        <v>0.4528905133019947</v>
       </c>
       <c r="K22">
-        <v>1.400059661494623</v>
+        <v>1.002512813038109</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3735808777784371</v>
       </c>
       <c r="M22">
-        <v>6.961516689165023</v>
+        <v>0.3980301828167256</v>
       </c>
       <c r="N22">
-        <v>0.3738052838049555</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>6.249712751766651</v>
       </c>
       <c r="P22">
-        <v>0.7423289145927683</v>
+        <v>0.3927800613048333</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8991539065242904</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3563114960755627</v>
+        <v>0.2152070803358299</v>
       </c>
       <c r="D23">
-        <v>0.04688534231815566</v>
+        <v>0.06192747893943817</v>
       </c>
       <c r="E23">
-        <v>0.2642075433504445</v>
+        <v>0.2270979648989453</v>
       </c>
       <c r="F23">
-        <v>1.485484326899723</v>
+        <v>1.161002673094345</v>
       </c>
       <c r="G23">
-        <v>1.404180358670146</v>
+        <v>1.218625459065748</v>
       </c>
       <c r="H23">
-        <v>0.006307827858984649</v>
+        <v>0.00498448712541455</v>
       </c>
       <c r="I23">
-        <v>0.0122309432671619</v>
+        <v>0.01006191082248176</v>
       </c>
       <c r="J23">
-        <v>0.816617356359103</v>
+        <v>0.5043065512370219</v>
       </c>
       <c r="K23">
-        <v>1.363348459342035</v>
+        <v>0.9938140487824541</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3755605338812771</v>
       </c>
       <c r="M23">
-        <v>6.709207936482244</v>
+        <v>0.3880415612295351</v>
       </c>
       <c r="N23">
-        <v>0.3606843855825304</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6.062448739671311</v>
       </c>
       <c r="P23">
-        <v>0.7476653125501258</v>
+        <v>0.3799296886360679</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.8876539879267966</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3088764607870189</v>
+        <v>0.1831842868881495</v>
       </c>
       <c r="D24">
-        <v>0.04433379846159369</v>
+        <v>0.0541201808803109</v>
       </c>
       <c r="E24">
-        <v>0.2287138393778818</v>
+        <v>0.1967031037135101</v>
       </c>
       <c r="F24">
-        <v>1.316864053821192</v>
+        <v>1.083059688051833</v>
       </c>
       <c r="G24">
-        <v>1.244552244554313</v>
+        <v>0.9878952476356346</v>
       </c>
       <c r="H24">
-        <v>0.002685777964619218</v>
+        <v>0.002241213477102155</v>
       </c>
       <c r="I24">
-        <v>0.006487764786131223</v>
+        <v>0.005883296087345613</v>
       </c>
       <c r="J24">
-        <v>0.7487506506532782</v>
+        <v>0.6342653446829161</v>
       </c>
       <c r="K24">
-        <v>1.218592635912074</v>
+        <v>0.9359436932141776</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3742977568339612</v>
       </c>
       <c r="M24">
-        <v>5.744555059464858</v>
+        <v>0.3411660166338493</v>
       </c>
       <c r="N24">
-        <v>0.3117535417548538</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>5.289901824764627</v>
       </c>
       <c r="P24">
-        <v>0.7717465138411299</v>
+        <v>0.3309500597075896</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8636519869916839</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2577943903219477</v>
+        <v>0.154579705282373</v>
       </c>
       <c r="D25">
-        <v>0.0414857790229135</v>
+        <v>0.04834274839400976</v>
       </c>
       <c r="E25">
-        <v>0.1906614855435009</v>
+        <v>0.1654628545963455</v>
       </c>
       <c r="F25">
-        <v>1.140671363236322</v>
+        <v>0.9549164645169981</v>
       </c>
       <c r="G25">
-        <v>1.077742995759209</v>
+        <v>0.8609371799649779</v>
       </c>
       <c r="H25">
-        <v>0.0004377399829351702</v>
+        <v>0.0004095642388597387</v>
       </c>
       <c r="I25">
-        <v>0.00251550348693641</v>
+        <v>0.002718016676242385</v>
       </c>
       <c r="J25">
-        <v>0.6784427648892404</v>
+        <v>0.5991132038942055</v>
       </c>
       <c r="K25">
-        <v>1.065657081683796</v>
+        <v>0.8376524728470613</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3590520000043682</v>
       </c>
       <c r="M25">
-        <v>4.708102605759848</v>
+        <v>0.2795366841751488</v>
       </c>
       <c r="N25">
-        <v>0.2595442932126986</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>4.359406289699223</v>
       </c>
       <c r="P25">
-        <v>0.8011135811983721</v>
+        <v>0.2766828441628491</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8656531250584152</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
